--- a/Datos prueba.xlsx
+++ b/Datos prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Juli\Abejorros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C83A59-110E-4220-9982-7FE3AA19F69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B43906-9573-4286-BD7F-0B879633533A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Datos prueba.xlsx
+++ b/Datos prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Juli\Abejorros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B43906-9573-4286-BD7F-0B879633533A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EABE223-4A02-44F1-A257-7214AB812BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4627" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="164">
   <si>
     <t>PER 24hs</t>
   </si>
@@ -3703,12 +3703,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AE1000"/>
+  <dimension ref="A1:AE999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13710,164 +13710,164 @@
         <v>0.2621</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>134</v>
+    <row r="135" spans="1:31" s="91" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A135" s="87">
+        <v>135</v>
       </c>
       <c r="B135" s="87">
-        <v>13</v>
-      </c>
-      <c r="C135" s="96">
-        <v>45566</v>
+        <v>14</v>
+      </c>
+      <c r="C135" s="113">
+        <v>45586</v>
       </c>
       <c r="D135" t="s">
         <v>161</v>
       </c>
-      <c r="E135" s="4">
-        <v>0.4375</v>
-      </c>
-      <c r="F135" s="1">
-        <v>19</v>
-      </c>
-      <c r="G135" s="1">
-        <v>44</v>
-      </c>
-      <c r="H135" s="1">
-        <v>17</v>
-      </c>
-      <c r="I135" s="1" t="s">
+      <c r="E135" s="114">
+        <v>0.39374999999999999</v>
+      </c>
+      <c r="F135" s="115">
+        <v>25</v>
+      </c>
+      <c r="G135" s="116">
+        <v>68</v>
+      </c>
+      <c r="H135" s="117">
+        <v>1</v>
+      </c>
+      <c r="I135" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="J135" s="1">
+      <c r="J135" s="116">
         <v>5</v>
       </c>
-      <c r="K135" s="4">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U135" s="1">
-        <v>1</v>
-      </c>
-      <c r="V135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W135" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X135" s="1">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:31" s="91" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="87">
-        <v>135</v>
+      <c r="K135" s="118">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="L135" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="M135" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="N135" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="O135" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="P135" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q135" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="R135" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="S135" s="117">
+        <v>0</v>
+      </c>
+      <c r="T135" s="117">
+        <v>0</v>
+      </c>
+      <c r="U135" s="116">
+        <v>0</v>
+      </c>
+      <c r="V135" s="117">
+        <v>0</v>
+      </c>
+      <c r="W135" s="117">
+        <v>0</v>
+      </c>
+      <c r="X135" s="117">
+        <v>0.28210000000000002</v>
+      </c>
+      <c r="Y135" s="2"/>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
+      <c r="AB135" s="2"/>
+      <c r="AC135" s="2"/>
+      <c r="AD135" s="2"/>
+      <c r="AE135"/>
+    </row>
+    <row r="136" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>136</v>
       </c>
       <c r="B136" s="87">
         <v>14</v>
       </c>
-      <c r="C136" s="113">
+      <c r="C136" s="103">
         <v>45586</v>
       </c>
       <c r="D136" t="s">
         <v>161</v>
       </c>
-      <c r="E136" s="114">
+      <c r="E136" s="104">
         <v>0.39374999999999999</v>
       </c>
-      <c r="F136" s="115">
+      <c r="F136" s="105">
         <v>25</v>
       </c>
-      <c r="G136" s="116">
+      <c r="G136" s="92">
         <v>68</v>
       </c>
-      <c r="H136" s="117">
-        <v>1</v>
-      </c>
-      <c r="I136" s="117" t="s">
+      <c r="H136" s="106">
+        <v>2</v>
+      </c>
+      <c r="I136" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="J136" s="116">
+      <c r="J136" s="92">
         <v>5</v>
       </c>
-      <c r="K136" s="118">
+      <c r="K136" s="99">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L136" s="117" t="s">
+      <c r="L136" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M136" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="N136" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="O136" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="P136" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q136" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="R136" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="S136" s="117">
-        <v>0</v>
-      </c>
-      <c r="T136" s="117">
-        <v>0</v>
-      </c>
-      <c r="U136" s="116">
-        <v>0</v>
-      </c>
-      <c r="V136" s="117">
-        <v>0</v>
-      </c>
-      <c r="W136" s="117">
-        <v>0</v>
-      </c>
-      <c r="X136" s="117">
-        <v>0.28210000000000002</v>
-      </c>
-      <c r="Y136" s="2"/>
-      <c r="Z136" s="2"/>
-      <c r="AA136" s="2"/>
-      <c r="AB136" s="2"/>
-      <c r="AC136" s="2"/>
-      <c r="AD136" s="2"/>
-      <c r="AE136"/>
-    </row>
-    <row r="137" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M136" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="N136" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="O136" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="P136" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q136" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="R136" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="S136" s="106">
+        <v>0</v>
+      </c>
+      <c r="T136" s="106">
+        <v>0</v>
+      </c>
+      <c r="U136" s="92">
+        <v>0</v>
+      </c>
+      <c r="V136" s="106">
+        <v>0</v>
+      </c>
+      <c r="W136" s="106">
+        <v>0</v>
+      </c>
+      <c r="X136" s="106">
+        <v>0.43369999999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B137" s="87">
         <v>14</v>
@@ -13888,7 +13888,7 @@
         <v>68</v>
       </c>
       <c r="H137" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I137" s="106" t="s">
         <v>24</v>
@@ -13897,31 +13897,31 @@
         <v>5</v>
       </c>
       <c r="K137" s="99">
-        <v>0.1111111111111111</v>
+        <v>0.11111111111111099</v>
       </c>
       <c r="L137" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M137" s="106" t="s">
         <v>23</v>
       </c>
       <c r="N137" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O137" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P137" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q137" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R137" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S137" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137" s="106">
         <v>0</v>
@@ -13936,12 +13936,13 @@
         <v>0</v>
       </c>
       <c r="X137" s="106">
-        <v>0.43369999999999997</v>
-      </c>
+        <v>0.3301</v>
+      </c>
+      <c r="AD137" s="32"/>
     </row>
     <row r="138" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="87">
         <v>14</v>
@@ -13962,7 +13963,7 @@
         <v>68</v>
       </c>
       <c r="H138" s="106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I138" s="106" t="s">
         <v>24</v>
@@ -13980,7 +13981,7 @@
         <v>23</v>
       </c>
       <c r="N138" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O138" s="106" t="s">
         <v>45</v>
@@ -14004,19 +14005,19 @@
         <v>0</v>
       </c>
       <c r="V138" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W138" s="106">
         <v>0</v>
       </c>
       <c r="X138" s="106">
-        <v>0.3301</v>
+        <v>0.54310000000000003</v>
       </c>
       <c r="AD138" s="32"/>
     </row>
-    <row r="139" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B139" s="87">
         <v>14</v>
@@ -14037,7 +14038,7 @@
         <v>68</v>
       </c>
       <c r="H139" s="106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I139" s="106" t="s">
         <v>24</v>
@@ -14058,13 +14059,13 @@
         <v>23</v>
       </c>
       <c r="O139" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P139" s="106" t="s">
         <v>45</v>
       </c>
       <c r="Q139" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R139" s="106" t="s">
         <v>45</v>
@@ -14082,16 +14083,15 @@
         <v>1</v>
       </c>
       <c r="W139" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X139" s="106">
-        <v>0.54310000000000003</v>
-      </c>
-      <c r="AD139" s="32"/>
-    </row>
-    <row r="140" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.23719999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B140" s="87">
         <v>14</v>
@@ -14112,7 +14112,7 @@
         <v>68</v>
       </c>
       <c r="H140" s="106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I140" s="106" t="s">
         <v>24</v>
@@ -14127,19 +14127,19 @@
         <v>40</v>
       </c>
       <c r="M140" s="106" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N140" s="106" t="s">
         <v>23</v>
       </c>
       <c r="O140" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P140" s="106" t="s">
         <v>45</v>
       </c>
       <c r="Q140" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R140" s="106" t="s">
         <v>45</v>
@@ -14160,12 +14160,14 @@
         <v>1</v>
       </c>
       <c r="X140" s="106">
-        <v>0.23719999999999999</v>
-      </c>
-    </row>
-    <row r="141" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="AC140" s="2"/>
+      <c r="AD140" s="32"/>
+    </row>
+    <row r="141" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="87">
         <v>14</v>
@@ -14186,7 +14188,7 @@
         <v>68</v>
       </c>
       <c r="H141" s="106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I141" s="106" t="s">
         <v>24</v>
@@ -14198,10 +14200,10 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="L141" s="106" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M141" s="106" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N141" s="106" t="s">
         <v>23</v>
@@ -14228,20 +14230,18 @@
         <v>0</v>
       </c>
       <c r="V141" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W141" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X141" s="106">
-        <v>0.67859999999999998</v>
-      </c>
-      <c r="AC141" s="2"/>
-      <c r="AD141" s="32"/>
+        <v>0.2913</v>
+      </c>
     </row>
     <row r="142" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" s="87">
         <v>14</v>
@@ -14262,7 +14262,7 @@
         <v>68</v>
       </c>
       <c r="H142" s="106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I142" s="106" t="s">
         <v>24</v>
@@ -14283,16 +14283,16 @@
         <v>23</v>
       </c>
       <c r="O142" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P142" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q142" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R142" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="S142" s="106">
         <v>1</v>
@@ -14304,18 +14304,18 @@
         <v>0</v>
       </c>
       <c r="V142" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W142" s="106">
         <v>0</v>
       </c>
       <c r="X142" s="106">
-        <v>0.2913</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="143" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B143" s="87">
         <v>14</v>
@@ -14336,7 +14336,7 @@
         <v>68</v>
       </c>
       <c r="H143" s="106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I143" s="106" t="s">
         <v>24</v>
@@ -14360,13 +14360,13 @@
         <v>23</v>
       </c>
       <c r="P143" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q143" s="106" t="s">
         <v>23</v>
       </c>
       <c r="R143" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S143" s="106">
         <v>1</v>
@@ -14384,12 +14384,12 @@
         <v>0</v>
       </c>
       <c r="X143" s="106">
-        <v>0.16200000000000001</v>
+        <v>0.21729999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B144" s="87">
         <v>14</v>
@@ -14410,7 +14410,7 @@
         <v>68</v>
       </c>
       <c r="H144" s="106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I144" s="106" t="s">
         <v>24</v>
@@ -14422,7 +14422,7 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="L144" s="106" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M144" s="106" t="s">
         <v>23</v>
@@ -14437,7 +14437,7 @@
         <v>45</v>
       </c>
       <c r="Q144" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R144" s="106" t="s">
         <v>45</v>
@@ -14452,18 +14452,18 @@
         <v>0</v>
       </c>
       <c r="V144" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W144" s="106">
         <v>0</v>
       </c>
       <c r="X144" s="106">
-        <v>0.21729999999999999</v>
+        <v>0.3412</v>
       </c>
     </row>
     <row r="145" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B145" s="87">
         <v>14</v>
@@ -14484,7 +14484,7 @@
         <v>68</v>
       </c>
       <c r="H145" s="106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I145" s="106" t="s">
         <v>24</v>
@@ -14532,12 +14532,12 @@
         <v>0</v>
       </c>
       <c r="X145" s="106">
-        <v>0.3412</v>
+        <v>0.3755</v>
       </c>
     </row>
     <row r="146" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B146" s="87">
         <v>14</v>
@@ -14558,7 +14558,7 @@
         <v>68</v>
       </c>
       <c r="H146" s="106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I146" s="106" t="s">
         <v>24</v>
@@ -14600,18 +14600,18 @@
         <v>0</v>
       </c>
       <c r="V146" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W146" s="106">
         <v>0</v>
       </c>
       <c r="X146" s="106">
-        <v>0.3755</v>
+        <v>0.50309999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147" s="87">
         <v>14</v>
@@ -14632,7 +14632,7 @@
         <v>68</v>
       </c>
       <c r="H147" s="106">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I147" s="106" t="s">
         <v>24</v>
@@ -14644,16 +14644,16 @@
         <v>0.11111111111111099</v>
       </c>
       <c r="L147" s="106" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M147" s="106" t="s">
         <v>23</v>
       </c>
       <c r="N147" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O147" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P147" s="106" t="s">
         <v>45</v>
@@ -14680,12 +14680,12 @@
         <v>0</v>
       </c>
       <c r="X147" s="106">
-        <v>0.50309999999999999</v>
+        <v>0.43609999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B148" s="87">
         <v>14</v>
@@ -14706,7 +14706,7 @@
         <v>68</v>
       </c>
       <c r="H148" s="106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I148" s="106" t="s">
         <v>24</v>
@@ -14724,16 +14724,16 @@
         <v>23</v>
       </c>
       <c r="N148" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O148" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P148" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q148" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R148" s="106" t="s">
         <v>45</v>
@@ -14748,18 +14748,18 @@
         <v>0</v>
       </c>
       <c r="V148" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W148" s="106">
         <v>0</v>
       </c>
       <c r="X148" s="106">
-        <v>0.43609999999999999</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="149" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B149" s="87">
         <v>14</v>
@@ -14780,7 +14780,7 @@
         <v>68</v>
       </c>
       <c r="H149" s="106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" s="106" t="s">
         <v>24</v>
@@ -14807,13 +14807,13 @@
         <v>23</v>
       </c>
       <c r="Q149" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R149" s="106" t="s">
         <v>45</v>
       </c>
       <c r="S149" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T149" s="106">
         <v>0</v>
@@ -14822,18 +14822,18 @@
         <v>0</v>
       </c>
       <c r="V149" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W149" s="106">
         <v>0</v>
       </c>
       <c r="X149" s="106">
-        <v>0.35499999999999998</v>
+        <v>0.2266</v>
       </c>
     </row>
     <row r="150" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B150" s="87">
         <v>14</v>
@@ -14854,7 +14854,7 @@
         <v>68</v>
       </c>
       <c r="H150" s="106">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I150" s="106" t="s">
         <v>24</v>
@@ -14872,13 +14872,13 @@
         <v>23</v>
       </c>
       <c r="N150" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O150" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P150" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q150" s="106" t="s">
         <v>45</v>
@@ -14887,10 +14887,10 @@
         <v>45</v>
       </c>
       <c r="S150" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T150" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U150" s="92">
         <v>0</v>
@@ -14902,12 +14902,12 @@
         <v>0</v>
       </c>
       <c r="X150" s="106">
-        <v>0.2266</v>
+        <v>0.33119999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B151" s="87">
         <v>14</v>
@@ -14928,7 +14928,7 @@
         <v>68</v>
       </c>
       <c r="H151" s="106">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I151" s="106" t="s">
         <v>24</v>
@@ -14946,7 +14946,7 @@
         <v>23</v>
       </c>
       <c r="N151" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O151" s="106" t="s">
         <v>45</v>
@@ -14964,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="T151" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U151" s="92">
         <v>0</v>
@@ -14976,12 +14976,12 @@
         <v>0</v>
       </c>
       <c r="X151" s="106">
-        <v>0.33119999999999999</v>
+        <v>0.47760000000000002</v>
       </c>
     </row>
     <row r="152" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B152" s="87">
         <v>14</v>
@@ -15002,7 +15002,7 @@
         <v>68</v>
       </c>
       <c r="H152" s="106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I152" s="106" t="s">
         <v>24</v>
@@ -15023,13 +15023,13 @@
         <v>23</v>
       </c>
       <c r="O152" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P152" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q152" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R152" s="106" t="s">
         <v>45</v>
@@ -15050,86 +15050,93 @@
         <v>0</v>
       </c>
       <c r="X152" s="106">
-        <v>0.47760000000000002</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>152</v>
+        <v>0.21659999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:31" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="87">
+        <v>153</v>
       </c>
       <c r="B153" s="87">
-        <v>14</v>
-      </c>
-      <c r="C153" s="103">
-        <v>45586</v>
+        <v>15</v>
+      </c>
+      <c r="C153" s="113">
+        <v>45587</v>
       </c>
       <c r="D153" t="s">
         <v>161</v>
       </c>
-      <c r="E153" s="104">
-        <v>0.39374999999999999</v>
-      </c>
-      <c r="F153" s="105">
-        <v>25</v>
-      </c>
-      <c r="G153" s="92">
-        <v>68</v>
-      </c>
-      <c r="H153" s="106">
-        <v>18</v>
-      </c>
-      <c r="I153" s="106" t="s">
+      <c r="E153" s="118">
+        <v>0.5</v>
+      </c>
+      <c r="F153" s="115">
         <v>24</v>
       </c>
-      <c r="J153" s="92">
+      <c r="G153" s="116">
+        <v>67</v>
+      </c>
+      <c r="H153" s="117">
+        <v>1</v>
+      </c>
+      <c r="I153" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="J153" s="90">
         <v>5</v>
       </c>
-      <c r="K153" s="99">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="L153" s="106" t="s">
-        <v>32</v>
-      </c>
-      <c r="M153" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="N153" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="O153" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="P153" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q153" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="R153" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="S153" s="106">
-        <v>1</v>
-      </c>
-      <c r="T153" s="106">
-        <v>0</v>
-      </c>
-      <c r="U153" s="92">
-        <v>0</v>
-      </c>
-      <c r="V153" s="106">
-        <v>1</v>
-      </c>
-      <c r="W153" s="106">
-        <v>0</v>
-      </c>
-      <c r="X153" s="106">
-        <v>0.21659999999999999</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" s="91" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="87">
-        <v>153</v>
+      <c r="K153" s="118">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="L153" s="117" t="s">
+        <v>43</v>
+      </c>
+      <c r="M153" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="N153" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="O153" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="P153" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q153" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="R153" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="S153" s="117">
+        <v>0</v>
+      </c>
+      <c r="T153" s="117">
+        <v>0</v>
+      </c>
+      <c r="U153" s="116">
+        <v>0</v>
+      </c>
+      <c r="V153" s="117">
+        <v>0</v>
+      </c>
+      <c r="W153" s="117">
+        <v>0</v>
+      </c>
+      <c r="X153" s="117">
+        <v>0.28470000000000001</v>
+      </c>
+      <c r="Y153"/>
+      <c r="Z153"/>
+      <c r="AA153"/>
+      <c r="AB153"/>
+      <c r="AC153"/>
+      <c r="AD153"/>
+      <c r="AE153"/>
+    </row>
+    <row r="154" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>154</v>
       </c>
       <c r="B154" s="87">
         <v>15</v>
@@ -15140,77 +15147,70 @@
       <c r="D154" t="s">
         <v>161</v>
       </c>
-      <c r="E154" s="118">
+      <c r="E154" s="99">
         <v>0.5</v>
       </c>
-      <c r="F154" s="115">
+      <c r="F154" s="105">
         <v>24</v>
       </c>
-      <c r="G154" s="116">
+      <c r="G154" s="92">
         <v>67</v>
       </c>
-      <c r="H154" s="117">
-        <v>1</v>
-      </c>
-      <c r="I154" s="117" t="s">
+      <c r="H154" s="106">
+        <v>2</v>
+      </c>
+      <c r="I154" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="J154" s="90">
+      <c r="J154" s="95">
         <v>5</v>
       </c>
-      <c r="K154" s="118">
+      <c r="K154" s="99">
         <v>0.10416666666666667</v>
       </c>
-      <c r="L154" s="117" t="s">
+      <c r="L154" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="M154" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="N154" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="O154" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="P154" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q154" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="R154" s="117" t="s">
-        <v>23</v>
-      </c>
-      <c r="S154" s="117">
-        <v>0</v>
-      </c>
-      <c r="T154" s="117">
-        <v>0</v>
-      </c>
-      <c r="U154" s="116">
-        <v>0</v>
-      </c>
-      <c r="V154" s="117">
-        <v>0</v>
-      </c>
-      <c r="W154" s="117">
-        <v>0</v>
-      </c>
-      <c r="X154" s="117">
-        <v>0.28470000000000001</v>
-      </c>
-      <c r="Y154"/>
-      <c r="Z154"/>
-      <c r="AA154"/>
-      <c r="AB154"/>
-      <c r="AC154"/>
-      <c r="AD154"/>
-      <c r="AE154"/>
-    </row>
-    <row r="155" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M154" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="N154" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="O154" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="P154" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q154" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="R154" s="106" t="s">
+        <v>23</v>
+      </c>
+      <c r="S154" s="106">
+        <v>0</v>
+      </c>
+      <c r="T154" s="106">
+        <v>0</v>
+      </c>
+      <c r="U154" s="92">
+        <v>0</v>
+      </c>
+      <c r="V154" s="106">
+        <v>0</v>
+      </c>
+      <c r="W154" s="106">
+        <v>0</v>
+      </c>
+      <c r="X154" s="106">
+        <v>0.21609999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B155" s="87">
         <v>15</v>
@@ -15231,7 +15231,7 @@
         <v>67</v>
       </c>
       <c r="H155" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I155" s="106" t="s">
         <v>21</v>
@@ -15240,7 +15240,7 @@
         <v>5</v>
       </c>
       <c r="K155" s="99">
-        <v>0.10416666666666667</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="L155" s="106" t="s">
         <v>43</v>
@@ -15279,12 +15279,12 @@
         <v>0</v>
       </c>
       <c r="X155" s="106">
-        <v>0.21609999999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
+        <v>0.30930000000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B156" s="87">
         <v>15</v>
@@ -15305,7 +15305,7 @@
         <v>67</v>
       </c>
       <c r="H156" s="106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I156" s="106" t="s">
         <v>21</v>
@@ -15317,7 +15317,7 @@
         <v>0.104166666666667</v>
       </c>
       <c r="L156" s="106" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M156" s="106" t="s">
         <v>23</v>
@@ -15353,12 +15353,12 @@
         <v>0</v>
       </c>
       <c r="X156" s="106">
-        <v>0.30930000000000002</v>
+        <v>0.26079999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B157" s="87">
         <v>15</v>
@@ -15379,10 +15379,10 @@
         <v>67</v>
       </c>
       <c r="H157" s="106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I157" s="106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J157" s="95">
         <v>5</v>
@@ -15397,22 +15397,22 @@
         <v>23</v>
       </c>
       <c r="N157" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O157" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P157" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q157" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R157" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S157" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T157" s="106">
         <v>0</v>
@@ -15421,18 +15421,18 @@
         <v>0</v>
       </c>
       <c r="V157" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W157" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X157" s="106">
-        <v>0.26079999999999998</v>
+        <v>0.20469999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B158" s="87">
         <v>15</v>
@@ -15453,7 +15453,7 @@
         <v>67</v>
       </c>
       <c r="H158" s="106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I158" s="106" t="s">
         <v>24</v>
@@ -15471,7 +15471,7 @@
         <v>23</v>
       </c>
       <c r="N158" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O158" s="106" t="s">
         <v>45</v>
@@ -15480,13 +15480,13 @@
         <v>45</v>
       </c>
       <c r="Q158" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R158" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="S158" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T158" s="106">
         <v>0</v>
@@ -15498,15 +15498,15 @@
         <v>1</v>
       </c>
       <c r="W158" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X158" s="106">
-        <v>0.20469999999999999</v>
+        <v>0.39729999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159" s="87">
         <v>15</v>
@@ -15527,10 +15527,10 @@
         <v>67</v>
       </c>
       <c r="H159" s="106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I159" s="106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J159" s="95">
         <v>5</v>
@@ -15548,10 +15548,10 @@
         <v>23</v>
       </c>
       <c r="O159" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P159" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q159" s="106" t="s">
         <v>23</v>
@@ -15575,12 +15575,12 @@
         <v>0</v>
       </c>
       <c r="X159" s="106">
-        <v>0.39729999999999999</v>
+        <v>0.27079999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B160" s="87">
         <v>15</v>
@@ -15601,10 +15601,10 @@
         <v>67</v>
       </c>
       <c r="H160" s="106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I160" s="106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J160" s="95">
         <v>5</v>
@@ -15613,48 +15613,48 @@
         <v>0.104166666666667</v>
       </c>
       <c r="L160" s="106" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M160" s="106" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N160" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O160" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="P160" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Q160" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="R160" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="S160" s="106">
-        <v>0</v>
-      </c>
-      <c r="T160" s="106">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="S160" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="T160" s="106" t="s">
+        <v>27</v>
       </c>
       <c r="U160" s="92">
-        <v>0</v>
-      </c>
-      <c r="V160" s="106">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V160" s="106" t="s">
+        <v>27</v>
       </c>
       <c r="W160" s="106">
         <v>0</v>
       </c>
       <c r="X160" s="106">
-        <v>0.27079999999999999</v>
+        <v>-0.20119999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B161" s="87">
         <v>15</v>
@@ -15675,10 +15675,10 @@
         <v>67</v>
       </c>
       <c r="H161" s="106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I161" s="106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J161" s="95">
         <v>5</v>
@@ -15690,45 +15690,45 @@
         <v>22</v>
       </c>
       <c r="M161" s="106" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N161" s="106" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="O161" s="106" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="P161" s="106" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="Q161" s="106" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="R161" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="S161" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="T161" s="106" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="S161" s="106">
+        <v>1</v>
+      </c>
+      <c r="T161" s="106">
+        <v>0</v>
       </c>
       <c r="U161" s="92">
-        <v>1</v>
-      </c>
-      <c r="V161" s="106" t="s">
-        <v>27</v>
+        <v>0</v>
+      </c>
+      <c r="V161" s="106">
+        <v>1</v>
       </c>
       <c r="W161" s="106">
         <v>0</v>
       </c>
       <c r="X161" s="106">
-        <v>-0.20119999999999999</v>
+        <v>0.35010000000000002</v>
       </c>
     </row>
     <row r="162" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B162" s="87">
         <v>15</v>
@@ -15749,7 +15749,7 @@
         <v>67</v>
       </c>
       <c r="H162" s="106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I162" s="106" t="s">
         <v>21</v>
@@ -15779,7 +15779,7 @@
         <v>23</v>
       </c>
       <c r="R162" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="S162" s="106">
         <v>1</v>
@@ -15797,12 +15797,12 @@
         <v>0</v>
       </c>
       <c r="X162" s="106">
-        <v>0.35010000000000002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.1641</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B163" s="87">
         <v>15</v>
@@ -15823,10 +15823,10 @@
         <v>67</v>
       </c>
       <c r="H163" s="106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I163" s="106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J163" s="95">
         <v>5</v>
@@ -15844,13 +15844,13 @@
         <v>23</v>
       </c>
       <c r="O163" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P163" s="106" t="s">
         <v>23</v>
       </c>
       <c r="Q163" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R163" s="106" t="s">
         <v>45</v>
@@ -15865,18 +15865,24 @@
         <v>0</v>
       </c>
       <c r="V163" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W163" s="106">
         <v>0</v>
       </c>
       <c r="X163" s="106">
-        <v>0.1641</v>
-      </c>
-    </row>
-    <row r="164" spans="1:30" ht="12.5" x14ac:dyDescent="0.25">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="2"/>
+      <c r="AA163" s="2"/>
+      <c r="AB163" s="2"/>
+      <c r="AC163" s="2"/>
+      <c r="AD163" s="2"/>
+    </row>
+    <row r="164" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B164" s="87">
         <v>15</v>
@@ -15897,7 +15903,7 @@
         <v>67</v>
       </c>
       <c r="H164" s="106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I164" s="106" t="s">
         <v>24</v>
@@ -15909,7 +15915,7 @@
         <v>0.104166666666667</v>
       </c>
       <c r="L164" s="106" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M164" s="106" t="s">
         <v>23</v>
@@ -15921,7 +15927,7 @@
         <v>45</v>
       </c>
       <c r="P164" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q164" s="106" t="s">
         <v>45</v>
@@ -15939,24 +15945,18 @@
         <v>0</v>
       </c>
       <c r="V164" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W164" s="106">
         <v>0</v>
       </c>
       <c r="X164" s="106">
-        <v>0.25609999999999999</v>
-      </c>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
-      <c r="AA164" s="2"/>
-      <c r="AB164" s="2"/>
-      <c r="AC164" s="2"/>
-      <c r="AD164" s="2"/>
+        <v>0.21690000000000001</v>
+      </c>
     </row>
     <row r="165" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B165" s="87">
         <v>15</v>
@@ -15977,10 +15977,10 @@
         <v>67</v>
       </c>
       <c r="H165" s="106">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I165" s="106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J165" s="95">
         <v>5</v>
@@ -15998,10 +15998,10 @@
         <v>23</v>
       </c>
       <c r="O165" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P165" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q165" s="106" t="s">
         <v>45</v>
@@ -16025,12 +16025,12 @@
         <v>0</v>
       </c>
       <c r="X165" s="106">
-        <v>0.21690000000000001</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="166" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B166" s="87">
         <v>15</v>
@@ -16051,10 +16051,10 @@
         <v>67</v>
       </c>
       <c r="H166" s="106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I166" s="106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J166" s="95">
         <v>5</v>
@@ -16072,10 +16072,10 @@
         <v>23</v>
       </c>
       <c r="O166" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P166" s="106" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q166" s="106" t="s">
         <v>45</v>
@@ -16099,12 +16099,12 @@
         <v>0</v>
       </c>
       <c r="X166" s="106">
-        <v>0.2472</v>
+        <v>0.24329999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B167" s="87">
         <v>15</v>
@@ -16125,7 +16125,7 @@
         <v>67</v>
       </c>
       <c r="H167" s="106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I167" s="106" t="s">
         <v>24</v>
@@ -16170,15 +16170,15 @@
         <v>1</v>
       </c>
       <c r="W167" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X167" s="106">
-        <v>0.24329999999999999</v>
+        <v>0.24179999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B168" s="87">
         <v>15</v>
@@ -16199,10 +16199,10 @@
         <v>67</v>
       </c>
       <c r="H168" s="106">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I168" s="106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J168" s="95">
         <v>5</v>
@@ -16211,7 +16211,7 @@
         <v>0.104166666666667</v>
       </c>
       <c r="L168" s="106" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M168" s="106" t="s">
         <v>23</v>
@@ -16220,13 +16220,13 @@
         <v>23</v>
       </c>
       <c r="O168" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P168" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q168" s="106" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R168" s="106" t="s">
         <v>45</v>
@@ -16241,18 +16241,18 @@
         <v>0</v>
       </c>
       <c r="V168" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W168" s="106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X168" s="106">
-        <v>0.24179999999999999</v>
+        <v>0.25779999999999997</v>
       </c>
     </row>
     <row r="169" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B169" s="87">
         <v>15</v>
@@ -16273,10 +16273,10 @@
         <v>67</v>
       </c>
       <c r="H169" s="106">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I169" s="106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J169" s="95">
         <v>5</v>
@@ -16288,45 +16288,43 @@
         <v>32</v>
       </c>
       <c r="M169" s="106" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N169" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O169" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="P169" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Q169" s="106" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="R169" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="S169" s="106">
-        <v>1</v>
-      </c>
-      <c r="T169" s="106">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="S169" s="106" t="s">
+        <v>27</v>
+      </c>
+      <c r="T169" s="106" t="s">
+        <v>27</v>
       </c>
       <c r="U169" s="92">
-        <v>0</v>
-      </c>
-      <c r="V169" s="106">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="V169" s="106"/>
       <c r="W169" s="106">
         <v>0</v>
       </c>
       <c r="X169" s="106">
-        <v>0.25779999999999997</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="170" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B170" s="87">
         <v>15</v>
@@ -16347,7 +16345,7 @@
         <v>67</v>
       </c>
       <c r="H170" s="106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I170" s="106" t="s">
         <v>24</v>
@@ -16362,22 +16360,22 @@
         <v>32</v>
       </c>
       <c r="M170" s="106" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="N170" s="106" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="O170" s="106" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="P170" s="106" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="Q170" s="106" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="R170" s="106" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="S170" s="106" t="s">
         <v>27</v>
@@ -16393,17 +16391,17 @@
         <v>0</v>
       </c>
       <c r="X170" s="106">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="171" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>170</v>
-      </c>
-      <c r="B171" s="87">
+        <v>0.1421</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" s="135" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="134">
+        <v>171</v>
+      </c>
+      <c r="B171" s="1">
         <v>15</v>
       </c>
-      <c r="C171" s="113">
+      <c r="C171" s="103">
         <v>45587</v>
       </c>
       <c r="D171" t="s">
@@ -16418,198 +16416,202 @@
       <c r="G171" s="92">
         <v>67</v>
       </c>
-      <c r="H171" s="106">
-        <v>18</v>
-      </c>
-      <c r="I171" s="106" t="s">
+      <c r="H171" s="138">
+        <v>19</v>
+      </c>
+      <c r="I171" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="J171" s="95">
+      <c r="J171" s="139">
         <v>5</v>
       </c>
-      <c r="K171" s="99">
+      <c r="K171" s="136">
         <v>0.104166666666667</v>
       </c>
-      <c r="L171" s="106" t="s">
+      <c r="L171" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="M171" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="N171" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="O171" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P171" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q171" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="R171" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="S171" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="T171" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="U171" s="92">
-        <v>1</v>
-      </c>
-      <c r="V171" s="106"/>
-      <c r="W171" s="106">
-        <v>0</v>
-      </c>
-      <c r="X171" s="106">
-        <v>0.1421</v>
-      </c>
-    </row>
-    <row r="172" spans="1:30" s="135" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="134">
-        <v>171</v>
-      </c>
-      <c r="B172" s="1">
-        <v>15</v>
-      </c>
-      <c r="C172" s="103">
-        <v>45587</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="M171" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="N171" s="138" t="s">
+        <v>23</v>
+      </c>
+      <c r="O171" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="P171" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q171" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="R171" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="S171" s="138">
+        <v>1</v>
+      </c>
+      <c r="T171" s="138">
+        <v>0</v>
+      </c>
+      <c r="U171" s="137">
+        <v>0</v>
+      </c>
+      <c r="V171" s="138">
+        <v>1</v>
+      </c>
+      <c r="W171" s="138">
+        <v>0</v>
+      </c>
+      <c r="X171" s="138">
+        <v>0.38069999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>172</v>
+      </c>
+      <c r="B172" s="87">
+        <v>16</v>
+      </c>
+      <c r="C172" s="127">
+        <v>45601</v>
+      </c>
+      <c r="D172" s="121" t="s">
         <v>161</v>
       </c>
-      <c r="E172" s="99">
-        <v>0.5</v>
-      </c>
-      <c r="F172" s="105">
-        <v>24</v>
-      </c>
-      <c r="G172" s="92">
-        <v>67</v>
-      </c>
-      <c r="H172" s="138">
-        <v>19</v>
-      </c>
-      <c r="I172" s="138" t="s">
-        <v>24</v>
-      </c>
-      <c r="J172" s="139">
+      <c r="E172" s="128">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F172" s="87">
+        <v>22</v>
+      </c>
+      <c r="G172" s="87">
+        <v>37</v>
+      </c>
+      <c r="H172" s="142">
+        <v>1</v>
+      </c>
+      <c r="I172" s="133" t="s">
+        <v>21</v>
+      </c>
+      <c r="J172" s="132">
         <v>5</v>
       </c>
-      <c r="K172" s="136">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="L172" s="138" t="s">
-        <v>32</v>
-      </c>
-      <c r="M172" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="N172" s="138" t="s">
-        <v>23</v>
-      </c>
-      <c r="O172" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="P172" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q172" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="R172" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="S172" s="138">
-        <v>1</v>
-      </c>
-      <c r="T172" s="138">
-        <v>0</v>
-      </c>
-      <c r="U172" s="137">
-        <v>0</v>
-      </c>
-      <c r="V172" s="138">
-        <v>1</v>
-      </c>
-      <c r="W172" s="138">
-        <v>0</v>
-      </c>
-      <c r="X172" s="138">
-        <v>0.38069999999999998</v>
-      </c>
+      <c r="K172" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L172" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="M172" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="N172" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="O172" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="P172" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q172" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="R172" s="133" t="s">
+        <v>23</v>
+      </c>
+      <c r="S172" s="1"/>
+      <c r="T172" s="1"/>
+      <c r="U172" s="1">
+        <v>0</v>
+      </c>
+      <c r="V172" s="132">
+        <v>0</v>
+      </c>
+      <c r="W172" s="132">
+        <v>0</v>
+      </c>
+      <c r="X172" s="132">
+        <v>0.1729</v>
+      </c>
+      <c r="Y172" s="2"/>
+      <c r="Z172" s="2"/>
+      <c r="AA172" s="2"/>
+      <c r="AB172" s="2"/>
+      <c r="AC172" s="2"/>
+      <c r="AD172" s="2"/>
     </row>
     <row r="173" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
-        <v>172</v>
-      </c>
-      <c r="B173" s="87">
+        <v>173</v>
+      </c>
+      <c r="B173" s="1">
         <v>16</v>
       </c>
-      <c r="C173" s="127">
+      <c r="C173" s="120">
         <v>45601</v>
       </c>
-      <c r="D173" s="121" t="s">
+      <c r="D173" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="E173" s="128">
+      <c r="E173" s="122">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F173" s="87">
+      <c r="F173" s="1">
         <v>22</v>
       </c>
-      <c r="G173" s="87">
+      <c r="G173" s="1">
         <v>37</v>
       </c>
-      <c r="H173" s="142">
-        <v>1</v>
-      </c>
-      <c r="I173" s="133" t="s">
+      <c r="H173" s="143">
+        <v>2</v>
+      </c>
+      <c r="I173" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="J173" s="132">
+      <c r="J173" s="123">
         <v>5</v>
       </c>
-      <c r="K173" s="4">
+      <c r="K173" s="89">
         <v>6.25E-2</v>
       </c>
-      <c r="L173" s="133" t="s">
-        <v>43</v>
-      </c>
-      <c r="M173" s="133" t="s">
-        <v>23</v>
-      </c>
-      <c r="N173" s="133" t="s">
-        <v>23</v>
-      </c>
-      <c r="O173" s="133" t="s">
-        <v>23</v>
-      </c>
-      <c r="P173" s="133" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q173" s="133" t="s">
-        <v>23</v>
-      </c>
-      <c r="R173" s="133" t="s">
-        <v>23</v>
+      <c r="L173" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="M173" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="N173" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="O173" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="P173" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q173" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="R173" s="124" t="s">
+        <v>45</v>
       </c>
       <c r="S173" s="1"/>
       <c r="T173" s="1"/>
       <c r="U173" s="1">
         <v>0</v>
       </c>
-      <c r="V173" s="132">
-        <v>0</v>
-      </c>
-      <c r="W173" s="132">
-        <v>0</v>
-      </c>
-      <c r="X173" s="132">
-        <v>0.1729</v>
+      <c r="V173" s="123">
+        <v>0</v>
+      </c>
+      <c r="W173" s="123">
+        <v>0</v>
+      </c>
+      <c r="X173" s="123">
+        <v>0.1673</v>
       </c>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
@@ -16618,9 +16620,9 @@
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
     </row>
-    <row r="174" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B174" s="1">
         <v>16</v>
@@ -16632,7 +16634,7 @@
         <v>161</v>
       </c>
       <c r="E174" s="122">
-        <v>0.64583333333333337</v>
+        <v>0.64583333333333304</v>
       </c>
       <c r="F174" s="1">
         <v>22</v>
@@ -16641,7 +16643,7 @@
         <v>37</v>
       </c>
       <c r="H174" s="143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I174" s="124" t="s">
         <v>21</v>
@@ -16653,7 +16655,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L174" s="124" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M174" s="124" t="s">
         <v>23</v>
@@ -16662,41 +16664,33 @@
         <v>23</v>
       </c>
       <c r="O174" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P174" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q174" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R174" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1">
+      <c r="U174" s="95">
         <v>0</v>
       </c>
       <c r="V174" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W174" s="123">
         <v>0</v>
       </c>
       <c r="X174" s="123">
-        <v>0.1673</v>
-      </c>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
-      <c r="AB174" s="2"/>
-      <c r="AC174" s="2"/>
-      <c r="AD174" s="2"/>
-    </row>
-    <row r="175" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.1968</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" s="1">
         <v>16</v>
@@ -16717,7 +16711,7 @@
         <v>37</v>
       </c>
       <c r="H175" s="143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I175" s="124" t="s">
         <v>21</v>
@@ -16738,10 +16732,10 @@
         <v>23</v>
       </c>
       <c r="O175" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P175" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q175" s="124" t="s">
         <v>45</v>
@@ -16753,18 +16747,18 @@
         <v>0</v>
       </c>
       <c r="V175" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W175" s="123">
         <v>0</v>
       </c>
       <c r="X175" s="123">
-        <v>0.1968</v>
+        <v>0.18240000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:30" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" s="1">
         <v>16</v>
@@ -16785,7 +16779,7 @@
         <v>37</v>
       </c>
       <c r="H176" s="143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I176" s="124" t="s">
         <v>21</v>
@@ -16797,7 +16791,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L176" s="124" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M176" s="124" t="s">
         <v>23</v>
@@ -16827,12 +16821,12 @@
         <v>0</v>
       </c>
       <c r="X176" s="123">
-        <v>0.18240000000000001</v>
+        <v>0.15359999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B177" s="1">
         <v>16</v>
@@ -16853,7 +16847,7 @@
         <v>37</v>
       </c>
       <c r="H177" s="143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I177" s="124" t="s">
         <v>21</v>
@@ -16871,13 +16865,13 @@
         <v>23</v>
       </c>
       <c r="N177" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O177" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="P177" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q177" s="124" t="s">
         <v>45</v>
@@ -16889,18 +16883,18 @@
         <v>0</v>
       </c>
       <c r="V177" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W177" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X177" s="123">
-        <v>0.15359999999999999</v>
+        <v>0.25390000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B178" s="1">
         <v>16</v>
@@ -16921,7 +16915,7 @@
         <v>37</v>
       </c>
       <c r="H178" s="143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I178" s="124" t="s">
         <v>21</v>
@@ -16933,19 +16927,19 @@
         <v>6.25E-2</v>
       </c>
       <c r="L178" s="124" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M178" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N178" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="O178" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P178" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q178" s="124" t="s">
         <v>45</v>
@@ -16960,15 +16954,15 @@
         <v>1</v>
       </c>
       <c r="W178" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X178" s="123">
-        <v>0.25390000000000001</v>
+        <v>0.21010000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B179" s="1">
         <v>16</v>
@@ -16989,7 +16983,7 @@
         <v>37</v>
       </c>
       <c r="H179" s="143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I179" s="124" t="s">
         <v>21</v>
@@ -17004,7 +16998,7 @@
         <v>32</v>
       </c>
       <c r="M179" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N179" s="124" t="s">
         <v>23</v>
@@ -17013,10 +17007,10 @@
         <v>23</v>
       </c>
       <c r="P179" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q179" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R179" s="124" t="s">
         <v>45</v>
@@ -17024,19 +17018,19 @@
       <c r="U179" s="95">
         <v>0</v>
       </c>
-      <c r="V179" s="123">
+      <c r="V179" s="124">
         <v>1</v>
       </c>
       <c r="W179" s="123">
         <v>0</v>
       </c>
       <c r="X179" s="123">
-        <v>0.21010000000000001</v>
+        <v>0.1449</v>
       </c>
     </row>
     <row r="180" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B180" s="1">
         <v>16</v>
@@ -17057,13 +17051,13 @@
         <v>37</v>
       </c>
       <c r="H180" s="143">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I180" s="124" t="s">
         <v>21</v>
       </c>
       <c r="J180" s="123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K180" s="89">
         <v>6.25E-2</v>
@@ -17081,30 +17075,30 @@
         <v>23</v>
       </c>
       <c r="P180" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q180" s="124" t="s">
         <v>23</v>
       </c>
       <c r="R180" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="U180" s="95">
         <v>0</v>
       </c>
-      <c r="V180" s="124">
-        <v>1</v>
+      <c r="V180" s="123">
+        <v>0</v>
       </c>
       <c r="W180" s="123">
         <v>0</v>
       </c>
       <c r="X180" s="123">
-        <v>0.1449</v>
+        <v>0.1542</v>
       </c>
     </row>
     <row r="181" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B181" s="1">
         <v>16</v>
@@ -17125,7 +17119,7 @@
         <v>37</v>
       </c>
       <c r="H181" s="143">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I181" s="124" t="s">
         <v>21</v>
@@ -17149,30 +17143,30 @@
         <v>23</v>
       </c>
       <c r="P181" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q181" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R181" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="U181" s="95">
         <v>0</v>
       </c>
       <c r="V181" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W181" s="123">
         <v>0</v>
       </c>
       <c r="X181" s="123">
-        <v>0.1542</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="182" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B182" s="1">
         <v>16</v>
@@ -17193,7 +17187,7 @@
         <v>37</v>
       </c>
       <c r="H182" s="143">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I182" s="124" t="s">
         <v>21</v>
@@ -17217,30 +17211,30 @@
         <v>23</v>
       </c>
       <c r="P182" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q182" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="R182" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="U182" s="95">
         <v>0</v>
       </c>
       <c r="V182" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W182" s="123">
         <v>0</v>
       </c>
       <c r="X182" s="123">
-        <v>0.104</v>
+        <v>0.1444</v>
       </c>
     </row>
     <row r="183" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B183" s="1">
         <v>16</v>
@@ -17261,7 +17255,7 @@
         <v>37</v>
       </c>
       <c r="H183" s="143">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I183" s="124" t="s">
         <v>21</v>
@@ -17276,39 +17270,39 @@
         <v>32</v>
       </c>
       <c r="M183" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N183" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="O183" s="124" t="s">
         <v>23</v>
       </c>
       <c r="P183" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q183" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="R183" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="U183" s="95">
         <v>0</v>
       </c>
       <c r="V183" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W183" s="123">
         <v>0</v>
       </c>
       <c r="X183" s="123">
-        <v>0.1444</v>
+        <v>0.13450000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B184" s="1">
         <v>16</v>
@@ -17329,7 +17323,7 @@
         <v>37</v>
       </c>
       <c r="H184" s="143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I184" s="124" t="s">
         <v>21</v>
@@ -17341,19 +17335,19 @@
         <v>6.25E-2</v>
       </c>
       <c r="L184" s="124" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M184" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N184" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O184" s="124" t="s">
         <v>23</v>
       </c>
       <c r="P184" s="124" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Q184" s="124" t="s">
         <v>23</v>
@@ -17365,18 +17359,18 @@
         <v>0</v>
       </c>
       <c r="V184" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W184" s="123">
         <v>0</v>
       </c>
       <c r="X184" s="123">
-        <v>0.13450000000000001</v>
+        <v>0.14050000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B185" s="1">
         <v>16</v>
@@ -17397,7 +17391,7 @@
         <v>37</v>
       </c>
       <c r="H185" s="143">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I185" s="124" t="s">
         <v>21</v>
@@ -17412,39 +17406,39 @@
         <v>39</v>
       </c>
       <c r="M185" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N185" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="O185" s="124" t="s">
         <v>23</v>
       </c>
       <c r="P185" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q185" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="R185" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="Q185" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="R185" s="124" t="s">
-        <v>23</v>
-      </c>
       <c r="U185" s="95">
         <v>0</v>
       </c>
       <c r="V185" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W185" s="123">
         <v>0</v>
       </c>
       <c r="X185" s="123">
-        <v>0.14050000000000001</v>
+        <v>0.18679999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B186" s="1">
         <v>16</v>
@@ -17465,7 +17459,7 @@
         <v>37</v>
       </c>
       <c r="H186" s="143">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I186" s="124" t="s">
         <v>21</v>
@@ -17483,16 +17477,16 @@
         <v>1</v>
       </c>
       <c r="N186" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O186" s="124" t="s">
         <v>23</v>
       </c>
       <c r="P186" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q186" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R186" s="124" t="s">
         <v>45</v>
@@ -17507,12 +17501,12 @@
         <v>0</v>
       </c>
       <c r="X186" s="123">
-        <v>0.18679999999999999</v>
+        <v>0.12509999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B187" s="1">
         <v>16</v>
@@ -17533,7 +17527,7 @@
         <v>37</v>
       </c>
       <c r="H187" s="143">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I187" s="124" t="s">
         <v>21</v>
@@ -17545,7 +17539,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="L187" s="124" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M187" s="124" t="s">
         <v>1</v>
@@ -17557,10 +17551,10 @@
         <v>23</v>
       </c>
       <c r="P187" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q187" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R187" s="124" t="s">
         <v>45</v>
@@ -17569,18 +17563,18 @@
         <v>0</v>
       </c>
       <c r="V187" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W187" s="123">
         <v>0</v>
       </c>
       <c r="X187" s="123">
-        <v>0.12509999999999999</v>
+        <v>0.1129</v>
       </c>
     </row>
     <row r="188" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B188" s="1">
         <v>16</v>
@@ -17601,7 +17595,7 @@
         <v>37</v>
       </c>
       <c r="H188" s="143">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I188" s="124" t="s">
         <v>21</v>
@@ -17631,24 +17625,24 @@
         <v>23</v>
       </c>
       <c r="R188" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="U188" s="95">
         <v>0</v>
       </c>
       <c r="V188" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W188" s="123">
         <v>0</v>
       </c>
       <c r="X188" s="123">
-        <v>0.1129</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="189" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B189" s="1">
         <v>16</v>
@@ -17669,7 +17663,7 @@
         <v>37</v>
       </c>
       <c r="H189" s="143">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I189" s="124" t="s">
         <v>21</v>
@@ -17684,7 +17678,7 @@
         <v>22</v>
       </c>
       <c r="M189" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N189" s="124" t="s">
         <v>23</v>
@@ -17699,24 +17693,24 @@
         <v>23</v>
       </c>
       <c r="R189" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="U189" s="95">
         <v>0</v>
       </c>
       <c r="V189" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W189" s="123">
         <v>0</v>
       </c>
       <c r="X189" s="123">
-        <v>0.1056</v>
+        <v>0.1825</v>
       </c>
     </row>
     <row r="190" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B190" s="1">
         <v>16</v>
@@ -17737,22 +17731,22 @@
         <v>37</v>
       </c>
       <c r="H190" s="143">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I190" s="124" t="s">
         <v>21</v>
       </c>
       <c r="J190" s="123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K190" s="89">
         <v>6.25E-2</v>
       </c>
       <c r="L190" s="124" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M190" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N190" s="124" t="s">
         <v>23</v>
@@ -17764,7 +17758,7 @@
         <v>23</v>
       </c>
       <c r="Q190" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R190" s="124" t="s">
         <v>45</v>
@@ -17773,154 +17767,156 @@
         <v>0</v>
       </c>
       <c r="V190" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W190" s="123">
         <v>0</v>
       </c>
       <c r="X190" s="123">
-        <v>0.1825</v>
-      </c>
-    </row>
-    <row r="191" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.20480000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>190</v>
-      </c>
-      <c r="B191" s="1">
+        <v>191</v>
+      </c>
+      <c r="B191" s="134">
         <v>16</v>
       </c>
-      <c r="C191" s="120">
+      <c r="C191" s="140">
         <v>45601</v>
       </c>
-      <c r="D191" s="131" t="s">
+      <c r="D191" s="145" t="s">
         <v>161</v>
       </c>
-      <c r="E191" s="122">
+      <c r="E191" s="141">
         <v>0.64583333333333304</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="134">
         <v>22</v>
       </c>
-      <c r="G191" s="1">
+      <c r="G191" s="134">
         <v>37</v>
       </c>
-      <c r="H191" s="143">
-        <v>19</v>
-      </c>
-      <c r="I191" s="124" t="s">
+      <c r="H191" s="144">
+        <v>20</v>
+      </c>
+      <c r="I191" s="126" t="s">
         <v>21</v>
       </c>
-      <c r="J191" s="123">
-        <v>5</v>
+      <c r="J191" s="125">
+        <v>6</v>
       </c>
       <c r="K191" s="89">
         <v>6.25E-2</v>
       </c>
-      <c r="L191" s="124" t="s">
+      <c r="L191" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="M191" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="N191" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="O191" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="P191" s="124" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q191" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="R191" s="124" t="s">
-        <v>45</v>
+      <c r="M191" s="126" t="s">
+        <v>1</v>
+      </c>
+      <c r="N191" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="O191" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="P191" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q191" s="126" t="s">
+        <v>23</v>
+      </c>
+      <c r="R191" s="126" t="s">
+        <v>1</v>
       </c>
       <c r="U191" s="95">
         <v>0</v>
       </c>
-      <c r="V191" s="123">
-        <v>1</v>
-      </c>
-      <c r="W191" s="123">
-        <v>0</v>
-      </c>
-      <c r="X191" s="123">
-        <v>0.20480000000000001</v>
-      </c>
-    </row>
-    <row r="192" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>191</v>
-      </c>
-      <c r="B192" s="134">
-        <v>16</v>
-      </c>
-      <c r="C192" s="140">
-        <v>45601</v>
-      </c>
-      <c r="D192" s="145" t="s">
+      <c r="V191" s="125">
+        <v>0</v>
+      </c>
+      <c r="W191" s="125">
+        <v>0</v>
+      </c>
+      <c r="X191" s="125">
+        <v>0.17299999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" s="91" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="87">
+        <v>192</v>
+      </c>
+      <c r="B192" s="95">
+        <v>17</v>
+      </c>
+      <c r="C192" s="120">
+        <v>45602</v>
+      </c>
+      <c r="D192" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="E192" s="141">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="F192" s="134">
-        <v>22</v>
-      </c>
-      <c r="G192" s="134">
-        <v>37</v>
-      </c>
-      <c r="H192" s="144">
-        <v>20</v>
-      </c>
-      <c r="I192" s="126" t="s">
+      <c r="E192" s="122">
+        <v>0.57638888888888884</v>
+      </c>
+      <c r="F192" s="1">
+        <v>24</v>
+      </c>
+      <c r="G192" s="1">
+        <v>32</v>
+      </c>
+      <c r="H192" s="129">
+        <v>1</v>
+      </c>
+      <c r="I192" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="J192" s="125">
+      <c r="J192" s="90">
         <v>6</v>
       </c>
-      <c r="K192" s="89">
-        <v>6.25E-2</v>
-      </c>
-      <c r="L192" s="126" t="s">
-        <v>40</v>
-      </c>
-      <c r="M192" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="N192" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="O192" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="P192" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q192" s="126" t="s">
-        <v>23</v>
-      </c>
-      <c r="R192" s="126" t="s">
-        <v>1</v>
-      </c>
-      <c r="U192" s="95">
-        <v>0</v>
-      </c>
-      <c r="V192" s="125">
-        <v>0</v>
-      </c>
-      <c r="W192" s="125">
-        <v>0</v>
-      </c>
-      <c r="X192" s="125">
-        <v>0.17299999999999999</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24" s="91" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="87">
-        <v>192</v>
+      <c r="K192" s="118">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="L192" s="130" t="s">
+        <v>43</v>
+      </c>
+      <c r="M192" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="N192" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="O192" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="P192" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q192" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="R192" s="130" t="s">
+        <v>23</v>
+      </c>
+      <c r="S192" s="90"/>
+      <c r="T192" s="90"/>
+      <c r="U192" s="90">
+        <v>0</v>
+      </c>
+      <c r="V192" s="129">
+        <v>0</v>
+      </c>
+      <c r="W192" s="129">
+        <v>0</v>
+      </c>
+      <c r="X192" s="129">
+        <v>0.15970000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>193</v>
       </c>
       <c r="B193" s="95">
         <v>17</v>
@@ -17928,7 +17924,7 @@
       <c r="C193" s="120">
         <v>45602</v>
       </c>
-      <c r="D193" s="131" t="s">
+      <c r="D193" s="121" t="s">
         <v>161</v>
       </c>
       <c r="E193" s="122">
@@ -17940,57 +17936,55 @@
       <c r="G193" s="1">
         <v>32</v>
       </c>
-      <c r="H193" s="129">
-        <v>1</v>
-      </c>
-      <c r="I193" s="130" t="s">
+      <c r="H193" s="123">
+        <v>2</v>
+      </c>
+      <c r="I193" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="J193" s="90">
+      <c r="J193" s="95">
         <v>6</v>
       </c>
-      <c r="K193" s="118">
+      <c r="K193" s="99">
         <v>6.9444444444444448E-2</v>
       </c>
-      <c r="L193" s="130" t="s">
-        <v>43</v>
-      </c>
-      <c r="M193" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="N193" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="O193" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="P193" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q193" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="R193" s="130" t="s">
-        <v>23</v>
-      </c>
-      <c r="S193" s="90"/>
-      <c r="T193" s="90"/>
-      <c r="U193" s="90">
-        <v>0</v>
-      </c>
-      <c r="V193" s="129">
-        <v>0</v>
-      </c>
-      <c r="W193" s="129">
-        <v>0</v>
-      </c>
-      <c r="X193" s="129">
-        <v>0.15970000000000001</v>
+      <c r="L193" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="M193" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="N193" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="O193" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="P193" s="124" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q193" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="R193" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="U193" s="95">
+        <v>0</v>
+      </c>
+      <c r="V193" s="123">
+        <v>0</v>
+      </c>
+      <c r="W193" s="123">
+        <v>0</v>
+      </c>
+      <c r="X193" s="123">
+        <v>0.17219999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B194" s="95">
         <v>17</v>
@@ -18002,7 +17996,7 @@
         <v>161</v>
       </c>
       <c r="E194" s="122">
-        <v>0.57638888888888884</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="F194" s="1">
         <v>24</v>
@@ -18011,7 +18005,7 @@
         <v>32</v>
       </c>
       <c r="H194" s="123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194" s="124" t="s">
         <v>21</v>
@@ -18020,7 +18014,7 @@
         <v>6</v>
       </c>
       <c r="K194" s="99">
-        <v>6.9444444444444448E-2</v>
+        <v>6.9444444444444406E-2</v>
       </c>
       <c r="L194" s="124" t="s">
         <v>40</v>
@@ -18032,16 +18026,16 @@
         <v>23</v>
       </c>
       <c r="O194" s="124" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="P194" s="124" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Q194" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R194" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="U194" s="95">
         <v>0</v>
@@ -18053,12 +18047,12 @@
         <v>0</v>
       </c>
       <c r="X194" s="123">
-        <v>0.17219999999999999</v>
+        <v>0.25140000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B195" s="95">
         <v>17</v>
@@ -18079,7 +18073,7 @@
         <v>32</v>
       </c>
       <c r="H195" s="123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I195" s="124" t="s">
         <v>21</v>
@@ -18091,42 +18085,42 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="L195" s="124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M195" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N195" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="O195" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="P195" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Q195" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="R195" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="U195" s="95">
-        <v>0</v>
-      </c>
-      <c r="V195" s="123">
-        <v>0</v>
-      </c>
-      <c r="W195" s="123">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U195" s="105">
+        <v>1</v>
+      </c>
+      <c r="V195" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="W195" s="124" t="s">
+        <v>27</v>
       </c>
       <c r="X195" s="123">
-        <v>0.25140000000000001</v>
+        <v>0.1452</v>
       </c>
     </row>
     <row r="196" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B196" s="95">
         <v>17</v>
@@ -18147,7 +18141,7 @@
         <v>32</v>
       </c>
       <c r="H196" s="123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I196" s="124" t="s">
         <v>21</v>
@@ -18162,39 +18156,39 @@
         <v>39</v>
       </c>
       <c r="M196" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N196" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="O196" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P196" s="124" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="Q196" s="124" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="R196" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="U196" s="105">
-        <v>1</v>
-      </c>
-      <c r="V196" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="W196" s="124" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="U196" s="95">
+        <v>0</v>
+      </c>
+      <c r="V196" s="123">
+        <v>1</v>
+      </c>
+      <c r="W196" s="123">
+        <v>0</v>
       </c>
       <c r="X196" s="123">
-        <v>0.1452</v>
+        <v>0.22189999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B197" s="95">
         <v>17</v>
@@ -18215,7 +18209,7 @@
         <v>32</v>
       </c>
       <c r="H197" s="123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I197" s="124" t="s">
         <v>21</v>
@@ -18257,12 +18251,12 @@
         <v>0</v>
       </c>
       <c r="X197" s="123">
-        <v>0.22189999999999999</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="198" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B198" s="95">
         <v>17</v>
@@ -18283,7 +18277,7 @@
         <v>32</v>
       </c>
       <c r="H198" s="123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I198" s="124" t="s">
         <v>21</v>
@@ -18310,27 +18304,27 @@
         <v>45</v>
       </c>
       <c r="Q198" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R198" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="U198" s="95">
         <v>0</v>
       </c>
       <c r="V198" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W198" s="123">
         <v>0</v>
       </c>
       <c r="X198" s="123">
-        <v>0.187</v>
+        <v>0.1661</v>
       </c>
     </row>
     <row r="199" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B199" s="95">
         <v>17</v>
@@ -18351,7 +18345,7 @@
         <v>32</v>
       </c>
       <c r="H199" s="123">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I199" s="124" t="s">
         <v>21</v>
@@ -18375,7 +18369,7 @@
         <v>23</v>
       </c>
       <c r="P199" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q199" s="124" t="s">
         <v>23</v>
@@ -18386,19 +18380,19 @@
       <c r="U199" s="95">
         <v>0</v>
       </c>
-      <c r="V199" s="123">
+      <c r="V199" s="124">
         <v>0</v>
       </c>
       <c r="W199" s="123">
         <v>0</v>
       </c>
       <c r="X199" s="123">
-        <v>0.1661</v>
+        <v>0.22409999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="95">
         <v>17</v>
@@ -18419,7 +18413,7 @@
         <v>32</v>
       </c>
       <c r="H200" s="123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I200" s="124" t="s">
         <v>21</v>
@@ -18431,7 +18425,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="L200" s="124" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="M200" s="124" t="s">
         <v>23</v>
@@ -18449,24 +18443,24 @@
         <v>23</v>
       </c>
       <c r="R200" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="U200" s="95">
         <v>0</v>
       </c>
-      <c r="V200" s="124">
-        <v>0</v>
+      <c r="V200" s="123">
+        <v>1</v>
       </c>
       <c r="W200" s="123">
         <v>0</v>
       </c>
       <c r="X200" s="123">
-        <v>0.22409999999999999</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="201" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" s="95">
         <v>17</v>
@@ -18487,7 +18481,7 @@
         <v>32</v>
       </c>
       <c r="H201" s="123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I201" s="124" t="s">
         <v>21</v>
@@ -18502,13 +18496,13 @@
         <v>32</v>
       </c>
       <c r="M201" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N201" s="124" t="s">
         <v>23</v>
       </c>
       <c r="O201" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P201" s="124" t="s">
         <v>23</v>
@@ -18517,24 +18511,24 @@
         <v>23</v>
       </c>
       <c r="R201" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="U201" s="95">
         <v>0</v>
       </c>
       <c r="V201" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W201" s="123">
         <v>0</v>
       </c>
       <c r="X201" s="123">
-        <v>0.185</v>
+        <v>0.17169999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" s="95">
         <v>17</v>
@@ -18555,7 +18549,7 @@
         <v>32</v>
       </c>
       <c r="H202" s="123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I202" s="124" t="s">
         <v>21</v>
@@ -18570,13 +18564,13 @@
         <v>32</v>
       </c>
       <c r="M202" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N202" s="124" t="s">
         <v>23</v>
       </c>
       <c r="O202" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="P202" s="124" t="s">
         <v>23</v>
@@ -18585,7 +18579,7 @@
         <v>23</v>
       </c>
       <c r="R202" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="U202" s="95">
         <v>0</v>
@@ -18597,12 +18591,12 @@
         <v>0</v>
       </c>
       <c r="X202" s="123">
-        <v>0.17169999999999999</v>
+        <v>0.15809999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" s="95">
         <v>17</v>
@@ -18623,7 +18617,7 @@
         <v>32</v>
       </c>
       <c r="H203" s="123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I203" s="124" t="s">
         <v>21</v>
@@ -18647,10 +18641,10 @@
         <v>23</v>
       </c>
       <c r="P203" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q203" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R203" s="124" t="s">
         <v>23</v>
@@ -18659,18 +18653,18 @@
         <v>0</v>
       </c>
       <c r="V203" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W203" s="123">
         <v>0</v>
       </c>
       <c r="X203" s="123">
-        <v>0.15809999999999999</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="204" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" s="95">
         <v>17</v>
@@ -18691,7 +18685,7 @@
         <v>32</v>
       </c>
       <c r="H204" s="123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I204" s="124" t="s">
         <v>21</v>
@@ -18715,30 +18709,30 @@
         <v>23</v>
       </c>
       <c r="P204" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q204" s="124" t="s">
         <v>45</v>
       </c>
       <c r="R204" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="U204" s="95">
         <v>0</v>
       </c>
       <c r="V204" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W204" s="123">
         <v>0</v>
       </c>
       <c r="X204" s="123">
-        <v>0.1636</v>
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" s="95">
         <v>17</v>
@@ -18759,7 +18753,7 @@
         <v>32</v>
       </c>
       <c r="H205" s="123">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I205" s="124" t="s">
         <v>21</v>
@@ -18783,10 +18777,10 @@
         <v>23</v>
       </c>
       <c r="P205" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q205" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R205" s="124" t="s">
         <v>45</v>
@@ -18801,12 +18795,12 @@
         <v>0</v>
       </c>
       <c r="X205" s="123">
-        <v>0.21199999999999999</v>
+        <v>0.15279999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" s="95">
         <v>17</v>
@@ -18827,7 +18821,7 @@
         <v>32</v>
       </c>
       <c r="H206" s="123">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I206" s="124" t="s">
         <v>21</v>
@@ -18839,7 +18833,7 @@
         <v>6.9444444444444406E-2</v>
       </c>
       <c r="L206" s="124" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M206" s="124" t="s">
         <v>23</v>
@@ -18854,7 +18848,7 @@
         <v>45</v>
       </c>
       <c r="Q206" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R206" s="124" t="s">
         <v>45</v>
@@ -18863,18 +18857,18 @@
         <v>0</v>
       </c>
       <c r="V206" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W206" s="123">
         <v>0</v>
       </c>
       <c r="X206" s="123">
-        <v>0.15279999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" s="95">
         <v>17</v>
@@ -18895,7 +18889,7 @@
         <v>32</v>
       </c>
       <c r="H207" s="123">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I207" s="124" t="s">
         <v>21</v>
@@ -18913,16 +18907,16 @@
         <v>23</v>
       </c>
       <c r="N207" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="O207" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P207" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="Q207" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="R207" s="124" t="s">
         <v>45</v>
@@ -18931,18 +18925,18 @@
         <v>0</v>
       </c>
       <c r="V207" s="123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W207" s="123">
         <v>0</v>
       </c>
       <c r="X207" s="123">
-        <v>0.20200000000000001</v>
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" s="95">
         <v>17</v>
@@ -18963,7 +18957,7 @@
         <v>32</v>
       </c>
       <c r="H208" s="123">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I208" s="124" t="s">
         <v>21</v>
@@ -18978,7 +18972,7 @@
         <v>22</v>
       </c>
       <c r="M208" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N208" s="124" t="s">
         <v>1</v>
@@ -18993,7 +18987,7 @@
         <v>23</v>
       </c>
       <c r="R208" s="124" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="U208" s="95">
         <v>0</v>
@@ -19005,12 +18999,12 @@
         <v>0</v>
       </c>
       <c r="X208" s="123">
-        <v>0.23899999999999999</v>
+        <v>0.18679999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" s="95">
         <v>17</v>
@@ -19031,7 +19025,7 @@
         <v>32</v>
       </c>
       <c r="H209" s="123">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I209" s="124" t="s">
         <v>21</v>
@@ -19046,39 +19040,39 @@
         <v>22</v>
       </c>
       <c r="M209" s="124" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N209" s="124" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="O209" s="124" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="P209" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Q209" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="R209" s="124" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="U209" s="95">
         <v>0</v>
       </c>
       <c r="V209" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W209" s="123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X209" s="123">
-        <v>0.18679999999999999</v>
+        <v>0.20630000000000001</v>
       </c>
     </row>
     <row r="210" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" s="95">
         <v>17</v>
@@ -19099,7 +19093,7 @@
         <v>32</v>
       </c>
       <c r="H210" s="123">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I210" s="124" t="s">
         <v>21</v>
@@ -19114,99 +19108,36 @@
         <v>22</v>
       </c>
       <c r="M210" s="124" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N210" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="O210" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="P210" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="Q210" s="124" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="R210" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="U210" s="95">
-        <v>0</v>
-      </c>
-      <c r="V210" s="123">
-        <v>1</v>
-      </c>
-      <c r="W210" s="123">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="U210" s="105">
+        <v>1</v>
+      </c>
+      <c r="V210" s="124"/>
+      <c r="W210" s="124"/>
       <c r="X210" s="123">
-        <v>0.20630000000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:24" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1">
-        <v>210</v>
-      </c>
-      <c r="B211" s="95">
-        <v>17</v>
-      </c>
-      <c r="C211" s="120">
-        <v>45602</v>
-      </c>
-      <c r="D211" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="E211" s="122">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="F211" s="1">
-        <v>24</v>
-      </c>
-      <c r="G211" s="1">
-        <v>32</v>
-      </c>
-      <c r="H211" s="123">
-        <v>19</v>
-      </c>
-      <c r="I211" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="J211" s="95">
-        <v>6</v>
-      </c>
-      <c r="K211" s="99">
-        <v>6.9444444444444406E-2</v>
-      </c>
-      <c r="L211" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="M211" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="N211" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="O211" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="P211" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q211" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="R211" s="124" t="s">
-        <v>1</v>
-      </c>
-      <c r="U211" s="105">
-        <v>1</v>
-      </c>
-      <c r="V211" s="124"/>
-      <c r="W211" s="124"/>
-      <c r="X211" s="123">
         <v>0.1593</v>
       </c>
+    </row>
+    <row r="211" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
     </row>
     <row r="212" spans="1:24" ht="12.5" x14ac:dyDescent="0.25">
       <c r="E212" s="1"/>
@@ -23147,11 +23078,6 @@
       <c r="E999" s="1"/>
       <c r="F999" s="1"/>
       <c r="G999" s="1"/>
-    </row>
-    <row r="1000" spans="5:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Datos prueba.xlsx
+++ b/Datos prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Juli\Abejorros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EABE223-4A02-44F1-A257-7214AB812BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29794D18-14FA-42D1-BC40-284B239D3568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="10240" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Limpio" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4614" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="164">
   <si>
     <t>PER 24hs</t>
   </si>
@@ -3705,10 +3705,10 @@
   </sheetPr>
   <dimension ref="A1:AE999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <selection pane="bottomLeft" activeCell="W212" sqref="W212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4222,7 +4222,9 @@
       <c r="T7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="1"/>
+      <c r="U7" s="1">
+        <v>1</v>
+      </c>
       <c r="V7" s="1" t="s">
         <v>27</v>
       </c>
@@ -4295,6 +4297,9 @@
         <v>0</v>
       </c>
       <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="95">
         <v>0</v>
       </c>
       <c r="W8" s="1">
@@ -4608,8 +4613,8 @@
       <c r="V12" s="1">
         <v>0</v>
       </c>
-      <c r="W12" s="1" t="s">
-        <v>27</v>
+      <c r="W12" s="1">
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>2.8999999999999915E-2</v>
@@ -4676,7 +4681,9 @@
       <c r="T13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
       <c r="V13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4755,8 +4762,8 @@
       <c r="V14" s="1">
         <v>0</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>27</v>
+      <c r="W14" s="1">
+        <v>0</v>
       </c>
       <c r="X14" s="1">
         <v>0.17600000000000016</v>
@@ -4829,7 +4836,9 @@
       <c r="T15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="1"/>
+      <c r="U15" s="1">
+        <v>1</v>
+      </c>
       <c r="V15" s="1" t="s">
         <v>29</v>
       </c>
@@ -5581,8 +5590,12 @@
       <c r="T25" s="1">
         <v>0</v>
       </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="W25" s="1" t="s">
         <v>29</v>
       </c>
@@ -5652,8 +5665,12 @@
       <c r="T26" s="1">
         <v>0</v>
       </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="U26" s="1">
+        <v>1</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="W26" s="1" t="s">
         <v>29</v>
       </c>
@@ -5808,8 +5825,12 @@
       <c r="T28" s="1">
         <v>0</v>
       </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="W28" s="1" t="s">
         <v>29</v>
       </c>
@@ -5882,7 +5903,9 @@
       <c r="U29" s="1">
         <v>1</v>
       </c>
-      <c r="V29" s="1"/>
+      <c r="V29" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="W29" s="1" t="s">
         <v>29</v>
       </c>
@@ -6492,10 +6515,10 @@
         <v>1</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="X37" s="1">
         <v>0.1628</v>
@@ -8388,9 +8411,11 @@
       <c r="U63" s="1">
         <v>1</v>
       </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1" t="s">
-        <v>27</v>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
       </c>
       <c r="X63" s="1">
         <v>0.26929999999999998</v>
@@ -8763,9 +8788,11 @@
       <c r="U68" s="1">
         <v>1</v>
       </c>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1" t="s">
-        <v>27</v>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:31" ht="12.5" x14ac:dyDescent="0.25">
@@ -8832,9 +8859,11 @@
       <c r="U69" s="1">
         <v>1</v>
       </c>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1" t="s">
-        <v>27</v>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
@@ -9058,11 +9087,11 @@
       <c r="U72" s="1">
         <v>1</v>
       </c>
-      <c r="V72" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W72" s="1" t="s">
-        <v>27</v>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
       </c>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
@@ -9367,11 +9396,11 @@
       <c r="U76" s="1">
         <v>1</v>
       </c>
-      <c r="V76" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W76" s="1" t="s">
-        <v>27</v>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>0</v>
       </c>
       <c r="X76" s="1">
         <v>0.1391</v>
@@ -9441,11 +9470,11 @@
       <c r="U77" s="1">
         <v>1</v>
       </c>
-      <c r="V77" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>27</v>
+      <c r="V77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77" s="1">
+        <v>0</v>
       </c>
       <c r="X77" s="1">
         <v>0.1235</v>
@@ -9660,11 +9689,11 @@
       <c r="U80" s="1">
         <v>0</v>
       </c>
-      <c r="V80" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W80" s="1" t="s">
-        <v>27</v>
+      <c r="V80" s="1">
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <v>0</v>
       </c>
       <c r="X80" s="1">
         <v>0.24900000000000055</v>
@@ -9962,9 +9991,11 @@
       <c r="U84" s="1">
         <v>0</v>
       </c>
-      <c r="V84" s="1"/>
-      <c r="W84" s="1" t="s">
-        <v>27</v>
+      <c r="V84" s="1">
+        <v>0</v>
+      </c>
+      <c r="W84" s="1">
+        <v>0</v>
       </c>
       <c r="X84" s="1">
         <v>0.28900000000000148</v>
@@ -10633,9 +10664,11 @@
       <c r="U93" s="1">
         <v>1</v>
       </c>
-      <c r="V93" s="1"/>
+      <c r="V93" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="W93" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X93" s="101">
         <v>0.2068999999999992</v>
@@ -11610,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="W106" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="X106" s="1">
         <v>0.16219999999999857</v>
@@ -15643,10 +15676,10 @@
         <v>1</v>
       </c>
       <c r="V160" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="W160" s="106">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="W160" s="106" t="s">
+        <v>29</v>
       </c>
       <c r="X160" s="106">
         <v>-0.20119999999999999</v>
@@ -16314,9 +16347,11 @@
       <c r="U169" s="92">
         <v>1</v>
       </c>
-      <c r="V169" s="106"/>
-      <c r="W169" s="106">
-        <v>0</v>
+      <c r="V169" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="W169" s="106" t="s">
+        <v>29</v>
       </c>
       <c r="X169" s="106">
         <v>0.27600000000000002</v>
@@ -16386,9 +16421,11 @@
       <c r="U170" s="92">
         <v>1</v>
       </c>
-      <c r="V170" s="106"/>
-      <c r="W170" s="106">
-        <v>0</v>
+      <c r="V170" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="W170" s="106" t="s">
+        <v>29</v>
       </c>
       <c r="X170" s="106">
         <v>0.1421</v>
@@ -18109,10 +18146,10 @@
         <v>1</v>
       </c>
       <c r="V195" s="124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W195" s="124" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="X195" s="123">
         <v>0.1452</v>
@@ -19128,8 +19165,12 @@
       <c r="U210" s="105">
         <v>1</v>
       </c>
-      <c r="V210" s="124"/>
-      <c r="W210" s="124"/>
+      <c r="V210" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="W210" s="124" t="s">
+        <v>29</v>
+      </c>
       <c r="X210" s="123">
         <v>0.1593</v>
       </c>

--- a/Datos prueba.xlsx
+++ b/Datos prueba.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Juli\Documents\Abejorros y Abejas\Abejorros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CE7F22-D70E-4C8A-AEFE-506CF19014A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0ADD321-96B0-4D5A-B995-3EB5DBD2093B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5184" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5183" uniqueCount="168">
   <si>
     <t>PER 24hs</t>
   </si>
@@ -925,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1257,34 +1257,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3753,10 +3730,10 @@
   </sheetPr>
   <dimension ref="A1:AF999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="H217" sqref="H217"/>
+      <selection pane="bottomLeft" activeCell="Y157" sqref="Y157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4440,7 +4417,9 @@
       <c r="T9" s="87">
         <v>0</v>
       </c>
-      <c r="U9" s="87"/>
+      <c r="U9" s="87">
+        <v>1</v>
+      </c>
       <c r="V9" s="87" t="s">
         <v>29</v>
       </c>
@@ -5141,7 +5120,9 @@
       <c r="T18" s="1">
         <v>0</v>
       </c>
-      <c r="U18" s="1"/>
+      <c r="U18" s="1">
+        <v>0</v>
+      </c>
       <c r="V18" s="1">
         <v>0</v>
       </c>
@@ -7354,8 +7335,8 @@
       <c r="R47" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="S47" s="87" t="s">
-        <v>47</v>
+      <c r="S47" s="87">
+        <v>0</v>
       </c>
       <c r="T47" s="87">
         <v>0</v>
@@ -7440,7 +7421,9 @@
       <c r="T48" s="1">
         <v>0</v>
       </c>
-      <c r="U48" s="1"/>
+      <c r="U48" s="1">
+        <v>0</v>
+      </c>
       <c r="V48" s="1">
         <v>0</v>
       </c>
@@ -8507,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T63" s="1"/>
       <c r="U63" s="1">
@@ -10782,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>27</v>
@@ -15875,7 +15858,7 @@
         <v>29</v>
       </c>
       <c r="X160" s="106">
-        <v>-0.20119999999999999</v>
+        <v>0.20119999999999999</v>
       </c>
       <c r="Y160" s="106"/>
     </row>
@@ -19677,7 +19660,7 @@
       <c r="J212" s="146">
         <v>6</v>
       </c>
-      <c r="K212" s="164">
+      <c r="K212" s="99">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="L212" s="147" t="s">
@@ -19754,7 +19737,7 @@
       <c r="J213" s="146">
         <v>7</v>
       </c>
-      <c r="K213" s="164">
+      <c r="K213" s="99">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="L213" s="147" t="s">
@@ -19831,7 +19814,7 @@
       <c r="J214" s="146">
         <v>6</v>
       </c>
-      <c r="K214" s="164">
+      <c r="K214" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L214" s="147" t="s">
@@ -19908,7 +19891,7 @@
       <c r="J215" s="146">
         <v>9</v>
       </c>
-      <c r="K215" s="164">
+      <c r="K215" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L215" s="147" t="s">
@@ -19985,7 +19968,7 @@
       <c r="J216" s="146">
         <v>8</v>
       </c>
-      <c r="K216" s="164">
+      <c r="K216" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L216" s="147" t="s">
@@ -20062,7 +20045,7 @@
       <c r="J217" s="146">
         <v>7</v>
       </c>
-      <c r="K217" s="164">
+      <c r="K217" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L217" s="147" t="s">
@@ -20131,7 +20114,7 @@
       <c r="J218" s="146">
         <v>8</v>
       </c>
-      <c r="K218" s="164">
+      <c r="K218" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L218" s="147" t="s">
@@ -20208,7 +20191,7 @@
       <c r="J219" s="146">
         <v>6</v>
       </c>
-      <c r="K219" s="164">
+      <c r="K219" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L219" s="147" t="s">
@@ -20285,7 +20268,7 @@
       <c r="J220" s="146">
         <v>6</v>
       </c>
-      <c r="K220" s="164">
+      <c r="K220" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L220" s="147" t="s">
@@ -20362,7 +20345,7 @@
       <c r="J221" s="146">
         <v>9</v>
       </c>
-      <c r="K221" s="164">
+      <c r="K221" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L221" s="147" t="s">
@@ -20439,7 +20422,7 @@
       <c r="J222" s="146">
         <v>7</v>
       </c>
-      <c r="K222" s="164">
+      <c r="K222" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L222" s="147" t="s">
@@ -20514,7 +20497,7 @@
       <c r="J223" s="146">
         <v>8</v>
       </c>
-      <c r="K223" s="164">
+      <c r="K223" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L223" s="147" t="s">
@@ -20591,7 +20574,7 @@
       <c r="J224" s="146">
         <v>6</v>
       </c>
-      <c r="K224" s="164">
+      <c r="K224" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L224" s="147" t="s">
@@ -20668,7 +20651,7 @@
       <c r="J225" s="146">
         <v>9</v>
       </c>
-      <c r="K225" s="164">
+      <c r="K225" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L225" s="147" t="s">
@@ -20745,7 +20728,7 @@
       <c r="J226" s="146">
         <v>8</v>
       </c>
-      <c r="K226" s="164">
+      <c r="K226" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L226" s="147" t="s">
@@ -20822,7 +20805,7 @@
       <c r="J227" s="146">
         <v>9</v>
       </c>
-      <c r="K227" s="164">
+      <c r="K227" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L227" s="147" t="s">
@@ -20891,7 +20874,7 @@
       <c r="J228" s="146">
         <v>7</v>
       </c>
-      <c r="K228" s="164">
+      <c r="K228" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L228" s="147" t="s">
@@ -20964,7 +20947,7 @@
       <c r="J229" s="146">
         <v>6</v>
       </c>
-      <c r="K229" s="164">
+      <c r="K229" s="99">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="L229" s="147" t="s">
@@ -21118,7 +21101,7 @@
       <c r="J231" s="145">
         <v>7</v>
       </c>
-      <c r="K231" s="155"/>
+      <c r="K231" s="105"/>
       <c r="L231" s="148" t="s">
         <v>22</v>
       </c>
@@ -21140,13 +21123,15 @@
       <c r="R231" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="S231" s="152">
-        <v>0</v>
-      </c>
-      <c r="T231" s="152">
-        <v>0</v>
-      </c>
-      <c r="U231" s="90"/>
+      <c r="S231" s="146">
+        <v>0</v>
+      </c>
+      <c r="T231" s="146">
+        <v>0</v>
+      </c>
+      <c r="U231" s="95">
+        <v>0</v>
+      </c>
       <c r="V231" s="123">
         <v>0</v>
       </c>
@@ -21170,45 +21155,48 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="154">
+      <c r="B232" s="95">
         <v>19</v>
       </c>
-      <c r="C232" s="156">
+      <c r="C232" s="120">
         <v>45629</v>
       </c>
-      <c r="D232" s="157" t="s">
+      <c r="D232" t="s">
         <v>161</v>
       </c>
-      <c r="E232" s="158">
+      <c r="E232" s="122">
         <v>0.47222222222222221</v>
       </c>
-      <c r="F232" s="159">
+      <c r="F232" s="1">
         <v>20</v>
       </c>
-      <c r="G232" s="159">
+      <c r="G232" s="1">
         <v>34</v>
       </c>
-      <c r="H232" s="152">
+      <c r="H232" s="146">
         <v>2</v>
       </c>
-      <c r="I232" s="153" t="s">
+      <c r="I232" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J232" s="152">
+      <c r="J232" s="146">
         <v>8</v>
       </c>
-      <c r="K232" s="155"/>
-      <c r="L232" s="153" t="s">
+      <c r="K232" s="105"/>
+      <c r="L232" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="M232" s="153"/>
-      <c r="N232" s="153"/>
-      <c r="O232" s="153"/>
-      <c r="P232" s="153"/>
-      <c r="Q232" s="153"/>
-      <c r="R232" s="153"/>
-      <c r="S232" s="153"/>
-      <c r="T232" s="153"/>
+      <c r="M232" s="147"/>
+      <c r="N232" s="147"/>
+      <c r="O232" s="147"/>
+      <c r="P232" s="147"/>
+      <c r="Q232" s="147"/>
+      <c r="R232" s="147"/>
+      <c r="S232" s="147"/>
+      <c r="T232" s="147"/>
+      <c r="U232" s="95">
+        <v>0</v>
+      </c>
       <c r="V232" s="124"/>
       <c r="W232" s="124"/>
       <c r="X232" s="123">
@@ -21224,59 +21212,62 @@
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" s="154">
+      <c r="B233" s="95">
         <v>19</v>
       </c>
-      <c r="C233" s="156">
+      <c r="C233" s="120">
         <v>45629</v>
       </c>
-      <c r="D233" s="157" t="s">
+      <c r="D233" t="s">
         <v>161</v>
       </c>
-      <c r="E233" s="158">
+      <c r="E233" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F233" s="159">
+      <c r="F233" s="1">
         <v>20</v>
       </c>
-      <c r="G233" s="159">
+      <c r="G233" s="1">
         <v>34</v>
       </c>
-      <c r="H233" s="152">
+      <c r="H233" s="146">
         <v>3</v>
       </c>
-      <c r="I233" s="153" t="s">
+      <c r="I233" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J233" s="152">
+      <c r="J233" s="146">
         <v>7</v>
       </c>
-      <c r="K233" s="155"/>
-      <c r="L233" s="153" t="s">
+      <c r="K233" s="105"/>
+      <c r="L233" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M233" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N233" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O233" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P233" s="153" t="s">
+      <c r="M233" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N233" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O233" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P233" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q233" s="153" t="s">
+      <c r="Q233" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R233" s="153" t="s">
+      <c r="R233" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S233" s="152">
-        <v>1</v>
-      </c>
-      <c r="T233" s="152">
+      <c r="S233" s="146">
+        <v>1</v>
+      </c>
+      <c r="T233" s="146">
+        <v>0</v>
+      </c>
+      <c r="U233" s="95">
         <v>0</v>
       </c>
       <c r="V233" s="123">
@@ -21302,45 +21293,48 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="154">
+      <c r="B234" s="95">
         <v>19</v>
       </c>
-      <c r="C234" s="156">
+      <c r="C234" s="120">
         <v>45629</v>
       </c>
-      <c r="D234" s="157" t="s">
+      <c r="D234" t="s">
         <v>161</v>
       </c>
-      <c r="E234" s="158">
+      <c r="E234" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F234" s="159">
+      <c r="F234" s="1">
         <v>20</v>
       </c>
-      <c r="G234" s="159">
+      <c r="G234" s="1">
         <v>34</v>
       </c>
-      <c r="H234" s="152">
+      <c r="H234" s="146">
         <v>4</v>
       </c>
-      <c r="I234" s="153" t="s">
+      <c r="I234" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J234" s="152">
+      <c r="J234" s="146">
         <v>8</v>
       </c>
-      <c r="K234" s="155"/>
-      <c r="L234" s="153" t="s">
+      <c r="K234" s="105"/>
+      <c r="L234" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="M234" s="153"/>
-      <c r="N234" s="153"/>
-      <c r="O234" s="153"/>
-      <c r="P234" s="153"/>
-      <c r="Q234" s="153"/>
-      <c r="R234" s="153"/>
-      <c r="S234" s="153"/>
-      <c r="T234" s="153"/>
+      <c r="M234" s="147"/>
+      <c r="N234" s="147"/>
+      <c r="O234" s="147"/>
+      <c r="P234" s="147"/>
+      <c r="Q234" s="147"/>
+      <c r="R234" s="147"/>
+      <c r="S234" s="147"/>
+      <c r="T234" s="147"/>
+      <c r="U234" s="95">
+        <v>0</v>
+      </c>
       <c r="V234" s="124"/>
       <c r="W234" s="124"/>
       <c r="X234" s="123">
@@ -21356,45 +21350,48 @@
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" s="154">
+      <c r="B235" s="95">
         <v>19</v>
       </c>
-      <c r="C235" s="156">
+      <c r="C235" s="120">
         <v>45629</v>
       </c>
-      <c r="D235" s="157" t="s">
+      <c r="D235" t="s">
         <v>161</v>
       </c>
-      <c r="E235" s="158">
+      <c r="E235" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F235" s="159">
+      <c r="F235" s="1">
         <v>20</v>
       </c>
-      <c r="G235" s="159">
+      <c r="G235" s="1">
         <v>34</v>
       </c>
-      <c r="H235" s="152">
+      <c r="H235" s="146">
         <v>5</v>
       </c>
-      <c r="I235" s="153" t="s">
+      <c r="I235" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J235" s="152">
+      <c r="J235" s="146">
         <v>7</v>
       </c>
-      <c r="K235" s="155"/>
-      <c r="L235" s="153" t="s">
+      <c r="K235" s="105"/>
+      <c r="L235" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="M235" s="153"/>
-      <c r="N235" s="153"/>
-      <c r="O235" s="153"/>
-      <c r="P235" s="153"/>
-      <c r="Q235" s="153"/>
-      <c r="R235" s="153"/>
-      <c r="S235" s="153"/>
-      <c r="T235" s="153"/>
+      <c r="M235" s="147"/>
+      <c r="N235" s="147"/>
+      <c r="O235" s="147"/>
+      <c r="P235" s="147"/>
+      <c r="Q235" s="147"/>
+      <c r="R235" s="147"/>
+      <c r="S235" s="147"/>
+      <c r="T235" s="147"/>
+      <c r="U235" s="95">
+        <v>0</v>
+      </c>
       <c r="V235" s="124"/>
       <c r="W235" s="124"/>
       <c r="X235" s="123">
@@ -21410,59 +21407,62 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="154">
+      <c r="B236" s="95">
         <v>19</v>
       </c>
-      <c r="C236" s="156">
+      <c r="C236" s="120">
         <v>45629</v>
       </c>
-      <c r="D236" s="157" t="s">
+      <c r="D236" t="s">
         <v>161</v>
       </c>
-      <c r="E236" s="158">
+      <c r="E236" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F236" s="159">
+      <c r="F236" s="1">
         <v>20</v>
       </c>
-      <c r="G236" s="159">
+      <c r="G236" s="1">
         <v>34</v>
       </c>
-      <c r="H236" s="152">
+      <c r="H236" s="146">
         <v>6</v>
       </c>
-      <c r="I236" s="153" t="s">
+      <c r="I236" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J236" s="152">
+      <c r="J236" s="146">
         <v>8</v>
       </c>
-      <c r="K236" s="155"/>
-      <c r="L236" s="153" t="s">
+      <c r="K236" s="105"/>
+      <c r="L236" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M236" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N236" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O236" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P236" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q236" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R236" s="153" t="s">
+      <c r="M236" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N236" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O236" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P236" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q236" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R236" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S236" s="152">
-        <v>1</v>
-      </c>
-      <c r="T236" s="152">
+      <c r="S236" s="146">
+        <v>1</v>
+      </c>
+      <c r="T236" s="146">
+        <v>0</v>
+      </c>
+      <c r="U236" s="95">
         <v>0</v>
       </c>
       <c r="V236" s="123">
@@ -21488,59 +21488,62 @@
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" s="154">
+      <c r="B237" s="95">
         <v>19</v>
       </c>
-      <c r="C237" s="156">
+      <c r="C237" s="120">
         <v>45629</v>
       </c>
-      <c r="D237" s="157" t="s">
+      <c r="D237" t="s">
         <v>161</v>
       </c>
-      <c r="E237" s="158">
+      <c r="E237" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F237" s="159">
+      <c r="F237" s="1">
         <v>20</v>
       </c>
-      <c r="G237" s="159">
+      <c r="G237" s="1">
         <v>34</v>
       </c>
-      <c r="H237" s="152">
+      <c r="H237" s="146">
         <v>7</v>
       </c>
-      <c r="I237" s="153" t="s">
+      <c r="I237" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J237" s="152">
+      <c r="J237" s="146">
         <v>8</v>
       </c>
-      <c r="K237" s="155"/>
-      <c r="L237" s="153" t="s">
+      <c r="K237" s="105"/>
+      <c r="L237" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M237" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N237" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O237" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P237" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q237" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R237" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S237" s="152">
-        <v>1</v>
-      </c>
-      <c r="T237" s="152">
+      <c r="M237" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N237" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O237" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P237" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q237" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R237" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="S237" s="146">
+        <v>1</v>
+      </c>
+      <c r="T237" s="146">
+        <v>0</v>
+      </c>
+      <c r="U237" s="95">
         <v>0</v>
       </c>
       <c r="V237" s="123">
@@ -21566,59 +21569,62 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="154">
+      <c r="B238" s="95">
         <v>19</v>
       </c>
-      <c r="C238" s="156">
+      <c r="C238" s="120">
         <v>45629</v>
       </c>
-      <c r="D238" s="157" t="s">
+      <c r="D238" t="s">
         <v>161</v>
       </c>
-      <c r="E238" s="158">
+      <c r="E238" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F238" s="159">
+      <c r="F238" s="1">
         <v>20</v>
       </c>
-      <c r="G238" s="159">
+      <c r="G238" s="1">
         <v>34</v>
       </c>
-      <c r="H238" s="152">
+      <c r="H238" s="146">
         <v>8</v>
       </c>
-      <c r="I238" s="153" t="s">
+      <c r="I238" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J238" s="152">
+      <c r="J238" s="146">
         <v>7</v>
       </c>
-      <c r="K238" s="155"/>
-      <c r="L238" s="153" t="s">
+      <c r="K238" s="105"/>
+      <c r="L238" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M238" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N238" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O238" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P238" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q238" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R238" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S238" s="152">
-        <v>0</v>
-      </c>
-      <c r="T238" s="152">
+      <c r="M238" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N238" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O238" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P238" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R238" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="S238" s="146">
+        <v>0</v>
+      </c>
+      <c r="T238" s="146">
+        <v>0</v>
+      </c>
+      <c r="U238" s="95">
         <v>0</v>
       </c>
       <c r="V238" s="124" t="s">
@@ -21644,59 +21650,62 @@
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" s="154">
+      <c r="B239" s="95">
         <v>19</v>
       </c>
-      <c r="C239" s="156">
+      <c r="C239" s="120">
         <v>45629</v>
       </c>
-      <c r="D239" s="157" t="s">
+      <c r="D239" t="s">
         <v>161</v>
       </c>
-      <c r="E239" s="158">
+      <c r="E239" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F239" s="159">
+      <c r="F239" s="1">
         <v>20</v>
       </c>
-      <c r="G239" s="159">
+      <c r="G239" s="1">
         <v>34</v>
       </c>
-      <c r="H239" s="152">
+      <c r="H239" s="146">
         <v>9</v>
       </c>
-      <c r="I239" s="153" t="s">
+      <c r="I239" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J239" s="152">
+      <c r="J239" s="146">
         <v>7</v>
       </c>
-      <c r="K239" s="155"/>
-      <c r="L239" s="153" t="s">
+      <c r="K239" s="105"/>
+      <c r="L239" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M239" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N239" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O239" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P239" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q239" s="153" t="s">
+      <c r="M239" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N239" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O239" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P239" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q239" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R239" s="153" t="s">
+      <c r="R239" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S239" s="152">
-        <v>1</v>
-      </c>
-      <c r="T239" s="152">
+      <c r="S239" s="146">
+        <v>1</v>
+      </c>
+      <c r="T239" s="146">
+        <v>0</v>
+      </c>
+      <c r="U239" s="95">
         <v>0</v>
       </c>
       <c r="V239" s="123">
@@ -21722,59 +21731,62 @@
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="154">
+      <c r="B240" s="95">
         <v>19</v>
       </c>
-      <c r="C240" s="156">
+      <c r="C240" s="120">
         <v>45629</v>
       </c>
-      <c r="D240" s="157" t="s">
+      <c r="D240" t="s">
         <v>161</v>
       </c>
-      <c r="E240" s="158">
+      <c r="E240" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F240" s="159">
+      <c r="F240" s="1">
         <v>20</v>
       </c>
-      <c r="G240" s="159">
+      <c r="G240" s="1">
         <v>34</v>
       </c>
-      <c r="H240" s="152">
+      <c r="H240" s="146">
         <v>10</v>
       </c>
-      <c r="I240" s="153" t="s">
+      <c r="I240" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J240" s="152">
+      <c r="J240" s="146">
         <v>7</v>
       </c>
-      <c r="K240" s="155"/>
-      <c r="L240" s="153" t="s">
+      <c r="K240" s="105"/>
+      <c r="L240" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M240" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N240" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O240" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P240" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q240" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R240" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S240" s="153" t="s">
+      <c r="M240" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N240" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O240" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P240" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q240" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R240" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="S240" s="147" t="s">
         <v>167</v>
       </c>
-      <c r="T240" s="152">
+      <c r="T240" s="146">
+        <v>0</v>
+      </c>
+      <c r="U240" s="95">
         <v>0</v>
       </c>
       <c r="V240" s="123">
@@ -21800,59 +21812,62 @@
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" s="154">
+      <c r="B241" s="95">
         <v>19</v>
       </c>
-      <c r="C241" s="156">
+      <c r="C241" s="120">
         <v>45629</v>
       </c>
-      <c r="D241" s="157" t="s">
+      <c r="D241" t="s">
         <v>161</v>
       </c>
-      <c r="E241" s="158">
+      <c r="E241" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F241" s="159">
+      <c r="F241" s="1">
         <v>20</v>
       </c>
-      <c r="G241" s="159">
+      <c r="G241" s="1">
         <v>34</v>
       </c>
-      <c r="H241" s="152">
+      <c r="H241" s="146">
         <v>11</v>
       </c>
-      <c r="I241" s="153" t="s">
+      <c r="I241" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J241" s="152">
+      <c r="J241" s="146">
         <v>7</v>
       </c>
-      <c r="K241" s="155"/>
-      <c r="L241" s="153" t="s">
+      <c r="K241" s="105"/>
+      <c r="L241" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M241" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N241" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O241" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P241" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q241" s="153" t="s">
+      <c r="M241" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N241" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O241" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P241" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q241" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R241" s="153" t="s">
+      <c r="R241" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S241" s="152">
-        <v>1</v>
-      </c>
-      <c r="T241" s="152">
+      <c r="S241" s="146">
+        <v>1</v>
+      </c>
+      <c r="T241" s="146">
+        <v>0</v>
+      </c>
+      <c r="U241" s="95">
         <v>0</v>
       </c>
       <c r="V241" s="123">
@@ -21878,49 +21893,52 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="154">
+      <c r="B242" s="95">
         <v>19</v>
       </c>
-      <c r="C242" s="156">
+      <c r="C242" s="120">
         <v>45629</v>
       </c>
-      <c r="D242" s="157" t="s">
+      <c r="D242" t="s">
         <v>161</v>
       </c>
-      <c r="E242" s="158">
+      <c r="E242" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F242" s="159">
+      <c r="F242" s="1">
         <v>20</v>
       </c>
-      <c r="G242" s="159">
+      <c r="G242" s="1">
         <v>34</v>
       </c>
-      <c r="H242" s="152">
+      <c r="H242" s="146">
         <v>12</v>
       </c>
-      <c r="I242" s="153" t="s">
+      <c r="I242" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J242" s="152">
+      <c r="J242" s="146">
         <v>8</v>
       </c>
-      <c r="K242" s="155"/>
-      <c r="L242" s="153" t="s">
+      <c r="K242" s="105"/>
+      <c r="L242" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M242" s="153" t="s">
+      <c r="M242" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="N242" s="153" t="s">
+      <c r="N242" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="O242" s="153"/>
-      <c r="P242" s="153"/>
-      <c r="Q242" s="153"/>
-      <c r="R242" s="153"/>
-      <c r="S242" s="153"/>
-      <c r="T242" s="153"/>
+      <c r="O242" s="147"/>
+      <c r="P242" s="147"/>
+      <c r="Q242" s="147"/>
+      <c r="R242" s="147"/>
+      <c r="S242" s="147"/>
+      <c r="T242" s="147"/>
+      <c r="U242" s="95">
+        <v>0</v>
+      </c>
       <c r="V242" s="124"/>
       <c r="W242" s="124"/>
       <c r="X242" s="123">
@@ -21936,59 +21954,62 @@
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" s="154">
+      <c r="B243" s="95">
         <v>19</v>
       </c>
-      <c r="C243" s="156">
+      <c r="C243" s="120">
         <v>45629</v>
       </c>
-      <c r="D243" s="157" t="s">
+      <c r="D243" t="s">
         <v>161</v>
       </c>
-      <c r="E243" s="158">
+      <c r="E243" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F243" s="159">
+      <c r="F243" s="1">
         <v>20</v>
       </c>
-      <c r="G243" s="159">
+      <c r="G243" s="1">
         <v>34</v>
       </c>
-      <c r="H243" s="152">
+      <c r="H243" s="146">
         <v>13</v>
       </c>
-      <c r="I243" s="153" t="s">
+      <c r="I243" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J243" s="152">
+      <c r="J243" s="146">
         <v>8</v>
       </c>
-      <c r="K243" s="155"/>
-      <c r="L243" s="153" t="s">
+      <c r="K243" s="105"/>
+      <c r="L243" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M243" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N243" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O243" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P243" s="153" t="s">
+      <c r="M243" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N243" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O243" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P243" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q243" s="153" t="s">
+      <c r="Q243" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R243" s="153" t="s">
+      <c r="R243" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S243" s="152">
-        <v>0</v>
-      </c>
-      <c r="T243" s="152">
+      <c r="S243" s="146">
+        <v>0</v>
+      </c>
+      <c r="T243" s="146">
+        <v>0</v>
+      </c>
+      <c r="U243" s="95">
         <v>0</v>
       </c>
       <c r="V243" s="123">
@@ -22014,59 +22035,62 @@
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="154">
+      <c r="B244" s="95">
         <v>19</v>
       </c>
-      <c r="C244" s="156">
+      <c r="C244" s="120">
         <v>45629</v>
       </c>
-      <c r="D244" s="157" t="s">
+      <c r="D244" t="s">
         <v>161</v>
       </c>
-      <c r="E244" s="158">
+      <c r="E244" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F244" s="159">
+      <c r="F244" s="1">
         <v>20</v>
       </c>
-      <c r="G244" s="159">
+      <c r="G244" s="1">
         <v>34</v>
       </c>
-      <c r="H244" s="152">
+      <c r="H244" s="146">
         <v>14</v>
       </c>
-      <c r="I244" s="153" t="s">
+      <c r="I244" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J244" s="152">
+      <c r="J244" s="146">
         <v>7</v>
       </c>
-      <c r="K244" s="155"/>
-      <c r="L244" s="153" t="s">
+      <c r="K244" s="105"/>
+      <c r="L244" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M244" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N244" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O244" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P244" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q244" s="153" t="s">
+      <c r="M244" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N244" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O244" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P244" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q244" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R244" s="153" t="s">
+      <c r="R244" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S244" s="152">
-        <v>1</v>
-      </c>
-      <c r="T244" s="152">
+      <c r="S244" s="146">
+        <v>1</v>
+      </c>
+      <c r="T244" s="146">
+        <v>0</v>
+      </c>
+      <c r="U244" s="95">
         <v>0</v>
       </c>
       <c r="V244" s="124" t="s">
@@ -22092,59 +22116,62 @@
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" s="154">
+      <c r="B245" s="95">
         <v>19</v>
       </c>
-      <c r="C245" s="156">
+      <c r="C245" s="120">
         <v>45629</v>
       </c>
-      <c r="D245" s="157" t="s">
+      <c r="D245" t="s">
         <v>161</v>
       </c>
-      <c r="E245" s="158">
+      <c r="E245" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F245" s="159">
+      <c r="F245" s="1">
         <v>20</v>
       </c>
-      <c r="G245" s="159">
+      <c r="G245" s="1">
         <v>34</v>
       </c>
-      <c r="H245" s="152">
+      <c r="H245" s="146">
         <v>15</v>
       </c>
-      <c r="I245" s="153" t="s">
+      <c r="I245" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J245" s="152">
+      <c r="J245" s="146">
         <v>8</v>
       </c>
-      <c r="K245" s="155"/>
-      <c r="L245" s="153" t="s">
+      <c r="K245" s="105"/>
+      <c r="L245" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M245" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N245" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O245" s="153" t="s">
+      <c r="M245" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N245" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O245" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="P245" s="153" t="s">
+      <c r="P245" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q245" s="153" t="s">
+      <c r="Q245" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R245" s="153" t="s">
+      <c r="R245" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S245" s="152">
-        <v>1</v>
-      </c>
-      <c r="T245" s="152">
+      <c r="S245" s="146">
+        <v>1</v>
+      </c>
+      <c r="T245" s="146">
+        <v>0</v>
+      </c>
+      <c r="U245" s="95">
         <v>0</v>
       </c>
       <c r="V245" s="123">
@@ -22170,59 +22197,62 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="154">
+      <c r="B246" s="95">
         <v>19</v>
       </c>
-      <c r="C246" s="156">
+      <c r="C246" s="120">
         <v>45629</v>
       </c>
-      <c r="D246" s="157" t="s">
+      <c r="D246" t="s">
         <v>161</v>
       </c>
-      <c r="E246" s="158">
+      <c r="E246" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F246" s="159">
+      <c r="F246" s="1">
         <v>20</v>
       </c>
-      <c r="G246" s="159">
+      <c r="G246" s="1">
         <v>34</v>
       </c>
-      <c r="H246" s="152">
+      <c r="H246" s="146">
         <v>16</v>
       </c>
-      <c r="I246" s="153" t="s">
+      <c r="I246" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J246" s="152">
+      <c r="J246" s="146">
         <v>7</v>
       </c>
-      <c r="K246" s="155"/>
-      <c r="L246" s="153" t="s">
+      <c r="K246" s="105"/>
+      <c r="L246" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M246" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N246" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O246" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P246" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q246" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R246" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S246" s="152">
-        <v>0</v>
-      </c>
-      <c r="T246" s="152">
+      <c r="M246" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N246" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O246" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P246" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q246" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R246" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="S246" s="146">
+        <v>0</v>
+      </c>
+      <c r="T246" s="146">
+        <v>0</v>
+      </c>
+      <c r="U246" s="95">
         <v>0</v>
       </c>
       <c r="V246" s="123">
@@ -22248,59 +22278,62 @@
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" s="154">
+      <c r="B247" s="95">
         <v>19</v>
       </c>
-      <c r="C247" s="156">
+      <c r="C247" s="120">
         <v>45629</v>
       </c>
-      <c r="D247" s="157" t="s">
+      <c r="D247" t="s">
         <v>161</v>
       </c>
-      <c r="E247" s="158">
+      <c r="E247" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F247" s="159">
+      <c r="F247" s="1">
         <v>20</v>
       </c>
-      <c r="G247" s="159">
+      <c r="G247" s="1">
         <v>34</v>
       </c>
-      <c r="H247" s="152">
+      <c r="H247" s="146">
         <v>17</v>
       </c>
-      <c r="I247" s="153" t="s">
+      <c r="I247" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J247" s="152">
+      <c r="J247" s="146">
         <v>8</v>
       </c>
-      <c r="K247" s="155"/>
-      <c r="L247" s="153" t="s">
+      <c r="K247" s="105"/>
+      <c r="L247" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M247" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N247" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O247" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P247" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q247" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R247" s="153" t="s">
+      <c r="M247" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N247" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O247" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P247" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q247" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R247" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S247" s="152">
-        <v>0</v>
-      </c>
-      <c r="T247" s="152">
+      <c r="S247" s="146">
+        <v>0</v>
+      </c>
+      <c r="T247" s="146">
+        <v>0</v>
+      </c>
+      <c r="U247" s="95">
         <v>0</v>
       </c>
       <c r="V247" s="123">
@@ -22326,59 +22359,62 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="154">
+      <c r="B248" s="95">
         <v>19</v>
       </c>
-      <c r="C248" s="156">
+      <c r="C248" s="120">
         <v>45629</v>
       </c>
-      <c r="D248" s="157" t="s">
+      <c r="D248" t="s">
         <v>161</v>
       </c>
-      <c r="E248" s="158">
+      <c r="E248" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F248" s="159">
+      <c r="F248" s="1">
         <v>20</v>
       </c>
-      <c r="G248" s="159">
+      <c r="G248" s="1">
         <v>34</v>
       </c>
-      <c r="H248" s="152">
+      <c r="H248" s="146">
         <v>18</v>
       </c>
-      <c r="I248" s="153" t="s">
+      <c r="I248" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J248" s="152">
+      <c r="J248" s="146">
         <v>8</v>
       </c>
-      <c r="K248" s="155"/>
-      <c r="L248" s="153" t="s">
+      <c r="K248" s="105"/>
+      <c r="L248" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="M248" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N248" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O248" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P248" s="153" t="s">
+      <c r="M248" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N248" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O248" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P248" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q248" s="153" t="s">
+      <c r="Q248" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R248" s="153" t="s">
+      <c r="R248" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S248" s="152">
-        <v>0</v>
-      </c>
-      <c r="T248" s="152">
+      <c r="S248" s="146">
+        <v>0</v>
+      </c>
+      <c r="T248" s="146">
+        <v>0</v>
+      </c>
+      <c r="U248" s="95">
         <v>0</v>
       </c>
       <c r="V248" s="123">
@@ -22404,47 +22440,50 @@
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" s="154">
+      <c r="B249" s="95">
         <v>19</v>
       </c>
-      <c r="C249" s="156">
+      <c r="C249" s="120">
         <v>45629</v>
       </c>
-      <c r="D249" s="157" t="s">
+      <c r="D249" t="s">
         <v>161</v>
       </c>
-      <c r="E249" s="158">
+      <c r="E249" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F249" s="159">
+      <c r="F249" s="1">
         <v>20</v>
       </c>
-      <c r="G249" s="159">
+      <c r="G249" s="1">
         <v>34</v>
       </c>
-      <c r="H249" s="152">
+      <c r="H249" s="146">
         <v>19</v>
       </c>
-      <c r="I249" s="153" t="s">
+      <c r="I249" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J249" s="152">
+      <c r="J249" s="146">
         <v>8</v>
       </c>
-      <c r="K249" s="155"/>
-      <c r="L249" s="153" t="s">
+      <c r="K249" s="105"/>
+      <c r="L249" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="M249" s="153" t="s">
+      <c r="M249" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="N249" s="153"/>
-      <c r="O249" s="153"/>
-      <c r="P249" s="153"/>
-      <c r="Q249" s="153"/>
-      <c r="R249" s="153"/>
-      <c r="S249" s="153"/>
-      <c r="T249" s="153"/>
+      <c r="N249" s="147"/>
+      <c r="O249" s="147"/>
+      <c r="P249" s="147"/>
+      <c r="Q249" s="147"/>
+      <c r="R249" s="147"/>
+      <c r="S249" s="147"/>
+      <c r="T249" s="147"/>
+      <c r="U249" s="95">
+        <v>0</v>
+      </c>
       <c r="V249" s="123">
         <v>0</v>
       </c>
@@ -22464,64 +22503,66 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:27" s="157" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="154">
+      <c r="B250" s="95">
         <v>19</v>
       </c>
-      <c r="C250" s="156">
+      <c r="C250" s="120">
         <v>45629</v>
       </c>
-      <c r="D250" s="157" t="s">
+      <c r="D250" t="s">
         <v>161</v>
       </c>
-      <c r="E250" s="158">
+      <c r="E250" s="122">
         <v>0.47222222222222199</v>
       </c>
-      <c r="F250" s="159">
+      <c r="F250" s="1">
         <v>20</v>
       </c>
-      <c r="G250" s="159">
+      <c r="G250" s="1">
         <v>34</v>
       </c>
-      <c r="H250" s="152">
+      <c r="H250" s="146">
         <v>20</v>
       </c>
-      <c r="I250" s="153" t="s">
+      <c r="I250" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J250" s="152">
+      <c r="J250" s="146">
         <v>7</v>
       </c>
-      <c r="K250" s="155"/>
-      <c r="L250" s="153" t="s">
+      <c r="K250" s="105"/>
+      <c r="L250" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="M250" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N250" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O250" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P250" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q250" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R250" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S250" s="153"/>
-      <c r="T250" s="152">
-        <v>0</v>
-      </c>
-      <c r="U250" s="154"/>
+      <c r="M250" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N250" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O250" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P250" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q250" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R250" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="S250" s="147"/>
+      <c r="T250" s="146">
+        <v>0</v>
+      </c>
+      <c r="U250" s="95">
+        <v>0</v>
+      </c>
       <c r="V250" s="125">
         <v>0</v>
       </c>
@@ -22531,7 +22572,7 @@
       <c r="X250" s="125">
         <v>0.21210000000000001</v>
       </c>
-      <c r="Y250" s="154">
+      <c r="Y250" s="95">
         <v>0</v>
       </c>
       <c r="Z250" s="125">
@@ -22551,7 +22592,7 @@
       <c r="C251" s="127">
         <v>45629</v>
       </c>
-      <c r="D251" s="163" t="s">
+      <c r="D251" s="91" t="s">
         <v>161</v>
       </c>
       <c r="E251" s="128">
@@ -22620,74 +22661,70 @@
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="154">
+      <c r="B252" s="95">
         <v>20</v>
       </c>
-      <c r="C252" s="156">
+      <c r="C252" s="120">
         <v>45629</v>
       </c>
-      <c r="D252" s="160" t="s">
+      <c r="D252" t="s">
         <v>161</v>
       </c>
-      <c r="E252" s="158">
+      <c r="E252" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F252" s="159">
+      <c r="F252" s="1">
         <v>22</v>
       </c>
-      <c r="G252" s="159">
+      <c r="G252" s="1">
         <v>30</v>
       </c>
-      <c r="H252" s="152">
+      <c r="H252" s="146">
         <v>2</v>
       </c>
-      <c r="I252" s="153" t="s">
+      <c r="I252" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J252" s="152">
+      <c r="J252" s="146">
         <v>9</v>
       </c>
-      <c r="K252" s="154"/>
-      <c r="L252" s="153" t="s">
+      <c r="L252" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="M252" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N252" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O252" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P252" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q252" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R252" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S252" s="154"/>
-      <c r="T252" s="154"/>
-      <c r="U252" s="154">
-        <v>0</v>
-      </c>
-      <c r="V252" s="152">
-        <v>0</v>
-      </c>
-      <c r="W252" s="152">
-        <v>0</v>
-      </c>
-      <c r="X252" s="152">
+      <c r="M252" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N252" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O252" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P252" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q252" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R252" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="U252" s="95">
+        <v>0</v>
+      </c>
+      <c r="V252" s="146">
+        <v>0</v>
+      </c>
+      <c r="W252" s="146">
+        <v>0</v>
+      </c>
+      <c r="X252" s="146">
         <v>0.19739999999999999</v>
       </c>
-      <c r="Y252" s="154"/>
-      <c r="Z252" s="152">
-        <v>0</v>
-      </c>
-      <c r="AA252" s="152">
+      <c r="Z252" s="146">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="146">
         <v>0</v>
       </c>
     </row>
@@ -22695,74 +22732,70 @@
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" s="154">
+      <c r="B253" s="95">
         <v>20</v>
       </c>
-      <c r="C253" s="156">
+      <c r="C253" s="120">
         <v>45629</v>
       </c>
-      <c r="D253" s="160" t="s">
+      <c r="D253" t="s">
         <v>161</v>
       </c>
-      <c r="E253" s="158">
+      <c r="E253" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F253" s="159">
+      <c r="F253" s="1">
         <v>22</v>
       </c>
-      <c r="G253" s="159">
+      <c r="G253" s="1">
         <v>30</v>
       </c>
-      <c r="H253" s="152">
+      <c r="H253" s="146">
         <v>3</v>
       </c>
-      <c r="I253" s="153" t="s">
+      <c r="I253" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J253" s="152">
+      <c r="J253" s="146">
         <v>9</v>
       </c>
-      <c r="K253" s="154"/>
-      <c r="L253" s="153" t="s">
+      <c r="L253" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M253" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N253" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O253" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P253" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q253" s="153" t="s">
+      <c r="M253" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N253" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O253" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P253" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q253" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R253" s="153" t="s">
+      <c r="R253" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S253" s="154"/>
-      <c r="T253" s="154"/>
-      <c r="U253" s="154">
-        <v>0</v>
-      </c>
-      <c r="V253" s="152">
-        <v>1</v>
-      </c>
-      <c r="W253" s="152">
-        <v>0</v>
-      </c>
-      <c r="X253" s="152">
+      <c r="U253" s="95">
+        <v>0</v>
+      </c>
+      <c r="V253" s="146">
+        <v>1</v>
+      </c>
+      <c r="W253" s="146">
+        <v>0</v>
+      </c>
+      <c r="X253" s="146">
         <v>0.2087</v>
       </c>
-      <c r="Y253" s="154"/>
-      <c r="Z253" s="152">
-        <v>0</v>
-      </c>
-      <c r="AA253" s="152">
+      <c r="Z253" s="146">
+        <v>0</v>
+      </c>
+      <c r="AA253" s="146">
         <v>0</v>
       </c>
     </row>
@@ -22770,74 +22803,70 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="154">
+      <c r="B254" s="95">
         <v>20</v>
       </c>
-      <c r="C254" s="156">
+      <c r="C254" s="120">
         <v>45629</v>
       </c>
-      <c r="D254" s="160" t="s">
+      <c r="D254" t="s">
         <v>161</v>
       </c>
-      <c r="E254" s="158">
+      <c r="E254" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F254" s="159">
+      <c r="F254" s="1">
         <v>22</v>
       </c>
-      <c r="G254" s="159">
+      <c r="G254" s="1">
         <v>30</v>
       </c>
-      <c r="H254" s="152">
+      <c r="H254" s="146">
         <v>4</v>
       </c>
-      <c r="I254" s="153" t="s">
+      <c r="I254" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J254" s="152">
+      <c r="J254" s="146">
         <v>9</v>
       </c>
-      <c r="K254" s="154"/>
-      <c r="L254" s="153" t="s">
+      <c r="L254" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M254" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N254" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O254" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P254" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q254" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R254" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S254" s="154"/>
-      <c r="T254" s="154"/>
-      <c r="U254" s="154">
-        <v>0</v>
-      </c>
-      <c r="V254" s="152">
-        <v>0</v>
-      </c>
-      <c r="W254" s="152">
-        <v>0</v>
-      </c>
-      <c r="X254" s="152">
+      <c r="M254" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N254" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O254" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P254" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q254" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R254" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U254" s="95">
+        <v>0</v>
+      </c>
+      <c r="V254" s="146">
+        <v>0</v>
+      </c>
+      <c r="W254" s="146">
+        <v>0</v>
+      </c>
+      <c r="X254" s="146">
         <v>0.2432</v>
       </c>
-      <c r="Y254" s="154"/>
-      <c r="Z254" s="152">
-        <v>0</v>
-      </c>
-      <c r="AA254" s="152">
+      <c r="Z254" s="146">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="146">
         <v>0</v>
       </c>
     </row>
@@ -22845,141 +22874,133 @@
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" s="154">
+      <c r="B255" s="95">
         <v>20</v>
       </c>
-      <c r="C255" s="156">
+      <c r="C255" s="120">
         <v>45629</v>
       </c>
-      <c r="D255" s="160" t="s">
+      <c r="D255" t="s">
         <v>161</v>
       </c>
-      <c r="E255" s="158">
+      <c r="E255" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F255" s="159">
+      <c r="F255" s="1">
         <v>22</v>
       </c>
-      <c r="G255" s="159">
+      <c r="G255" s="1">
         <v>30</v>
       </c>
-      <c r="H255" s="152">
+      <c r="H255" s="146">
         <v>5</v>
       </c>
-      <c r="I255" s="153" t="s">
+      <c r="I255" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J255" s="152">
+      <c r="J255" s="146">
         <v>9</v>
       </c>
-      <c r="K255" s="154"/>
-      <c r="L255" s="153" t="s">
+      <c r="L255" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M255" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N255" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O255" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P255" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q255" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R255" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S255" s="154"/>
-      <c r="T255" s="154"/>
-      <c r="U255" s="154">
-        <v>1</v>
-      </c>
-      <c r="V255" s="153"/>
-      <c r="W255" s="153"/>
-      <c r="X255" s="152">
+      <c r="M255" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N255" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O255" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P255" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q255" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R255" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U255" s="95">
+        <v>1</v>
+      </c>
+      <c r="V255" s="147"/>
+      <c r="W255" s="147"/>
+      <c r="X255" s="146">
         <v>0.23119999999999999</v>
       </c>
-      <c r="Y255" s="154"/>
-      <c r="Z255" s="153"/>
-      <c r="AA255" s="153"/>
+      <c r="Z255" s="147"/>
+      <c r="AA255" s="147"/>
     </row>
     <row r="256" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="154">
+      <c r="B256" s="95">
         <v>20</v>
       </c>
-      <c r="C256" s="156">
+      <c r="C256" s="120">
         <v>45629</v>
       </c>
-      <c r="D256" s="160" t="s">
+      <c r="D256" t="s">
         <v>161</v>
       </c>
-      <c r="E256" s="158">
+      <c r="E256" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F256" s="159">
+      <c r="F256" s="1">
         <v>22</v>
       </c>
-      <c r="G256" s="159">
+      <c r="G256" s="1">
         <v>30</v>
       </c>
-      <c r="H256" s="152">
+      <c r="H256" s="146">
         <v>6</v>
       </c>
-      <c r="I256" s="153" t="s">
+      <c r="I256" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J256" s="152">
+      <c r="J256" s="146">
         <v>9</v>
       </c>
-      <c r="K256" s="154"/>
-      <c r="L256" s="153" t="s">
+      <c r="L256" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M256" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N256" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O256" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P256" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q256" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R256" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S256" s="154"/>
-      <c r="T256" s="154"/>
-      <c r="U256" s="154">
-        <v>0</v>
-      </c>
-      <c r="V256" s="152">
-        <v>0</v>
-      </c>
-      <c r="W256" s="152">
-        <v>0</v>
-      </c>
-      <c r="X256" s="152">
+      <c r="M256" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N256" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O256" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P256" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q256" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R256" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U256" s="95">
+        <v>0</v>
+      </c>
+      <c r="V256" s="146">
+        <v>0</v>
+      </c>
+      <c r="W256" s="146">
+        <v>0</v>
+      </c>
+      <c r="X256" s="146">
         <v>0.2114</v>
       </c>
-      <c r="Y256" s="154"/>
-      <c r="Z256" s="152">
-        <v>0</v>
-      </c>
-      <c r="AA256" s="152">
+      <c r="Z256" s="146">
+        <v>0</v>
+      </c>
+      <c r="AA256" s="146">
         <v>0</v>
       </c>
     </row>
@@ -22987,74 +23008,70 @@
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" s="154">
+      <c r="B257" s="95">
         <v>20</v>
       </c>
-      <c r="C257" s="156">
+      <c r="C257" s="120">
         <v>45629</v>
       </c>
-      <c r="D257" s="160" t="s">
+      <c r="D257" t="s">
         <v>161</v>
       </c>
-      <c r="E257" s="158">
+      <c r="E257" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F257" s="159">
+      <c r="F257" s="1">
         <v>22</v>
       </c>
-      <c r="G257" s="159">
+      <c r="G257" s="1">
         <v>30</v>
       </c>
-      <c r="H257" s="152">
+      <c r="H257" s="146">
         <v>7</v>
       </c>
-      <c r="I257" s="153" t="s">
+      <c r="I257" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J257" s="152">
+      <c r="J257" s="146">
         <v>9</v>
       </c>
-      <c r="K257" s="154"/>
-      <c r="L257" s="153" t="s">
+      <c r="L257" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M257" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N257" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O257" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P257" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q257" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R257" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S257" s="154"/>
-      <c r="T257" s="154"/>
-      <c r="U257" s="154">
-        <v>0</v>
-      </c>
-      <c r="V257" s="152">
-        <v>1</v>
-      </c>
-      <c r="W257" s="152">
-        <v>0</v>
-      </c>
-      <c r="X257" s="152">
+      <c r="M257" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N257" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O257" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P257" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q257" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R257" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U257" s="95">
+        <v>0</v>
+      </c>
+      <c r="V257" s="146">
+        <v>1</v>
+      </c>
+      <c r="W257" s="146">
+        <v>0</v>
+      </c>
+      <c r="X257" s="146">
         <v>0.16830000000000001</v>
       </c>
-      <c r="Y257" s="154"/>
-      <c r="Z257" s="152">
-        <v>1</v>
-      </c>
-      <c r="AA257" s="152">
+      <c r="Z257" s="146">
+        <v>1</v>
+      </c>
+      <c r="AA257" s="146">
         <v>0</v>
       </c>
     </row>
@@ -23062,72 +23079,68 @@
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="154">
+      <c r="B258" s="95">
         <v>20</v>
       </c>
-      <c r="C258" s="156">
+      <c r="C258" s="120">
         <v>45629</v>
       </c>
-      <c r="D258" s="160" t="s">
+      <c r="D258" t="s">
         <v>161</v>
       </c>
-      <c r="E258" s="158">
+      <c r="E258" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F258" s="159">
+      <c r="F258" s="1">
         <v>22</v>
       </c>
-      <c r="G258" s="159">
+      <c r="G258" s="1">
         <v>30</v>
       </c>
-      <c r="H258" s="152">
+      <c r="H258" s="146">
         <v>8</v>
       </c>
-      <c r="I258" s="153" t="s">
+      <c r="I258" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J258" s="152">
+      <c r="J258" s="146">
         <v>9</v>
       </c>
-      <c r="K258" s="154"/>
-      <c r="L258" s="153" t="s">
+      <c r="L258" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M258" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N258" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O258" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P258" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q258" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R258" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S258" s="154"/>
-      <c r="T258" s="154"/>
-      <c r="U258" s="154">
-        <v>0</v>
-      </c>
-      <c r="V258" s="153"/>
-      <c r="W258" s="152">
-        <v>0</v>
-      </c>
-      <c r="X258" s="152">
+      <c r="M258" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N258" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O258" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P258" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q258" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R258" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="U258" s="95">
+        <v>0</v>
+      </c>
+      <c r="V258" s="147"/>
+      <c r="W258" s="146">
+        <v>0</v>
+      </c>
+      <c r="X258" s="146">
         <v>0.28470000000000001</v>
       </c>
-      <c r="Y258" s="154"/>
-      <c r="Z258" s="152">
-        <v>0</v>
-      </c>
-      <c r="AA258" s="152">
+      <c r="Z258" s="146">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="146">
         <v>0</v>
       </c>
     </row>
@@ -23135,107 +23148,89 @@
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" s="154">
+      <c r="B259" s="95">
         <v>20</v>
       </c>
-      <c r="C259" s="156">
+      <c r="C259" s="120">
         <v>45629</v>
       </c>
-      <c r="D259" s="160" t="s">
+      <c r="D259" t="s">
         <v>161</v>
       </c>
-      <c r="E259" s="158">
+      <c r="E259" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F259" s="159">
+      <c r="F259" s="1">
         <v>22</v>
       </c>
-      <c r="G259" s="159">
+      <c r="G259" s="1">
         <v>30</v>
       </c>
-      <c r="H259" s="152">
+      <c r="H259" s="146">
         <v>9</v>
       </c>
-      <c r="I259" s="153" t="s">
+      <c r="I259" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J259" s="152">
+      <c r="J259" s="146">
         <v>9</v>
       </c>
-      <c r="K259" s="154"/>
-      <c r="L259" s="153" t="s">
+      <c r="L259" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="M259" s="153"/>
-      <c r="N259" s="153"/>
-      <c r="O259" s="153"/>
-      <c r="P259" s="153"/>
-      <c r="Q259" s="153"/>
-      <c r="R259" s="153"/>
-      <c r="S259" s="154"/>
-      <c r="T259" s="154"/>
-      <c r="U259" s="154"/>
-      <c r="V259" s="154"/>
-      <c r="W259" s="154"/>
-      <c r="X259" s="152">
+      <c r="M259" s="147"/>
+      <c r="N259" s="147"/>
+      <c r="O259" s="147"/>
+      <c r="P259" s="147"/>
+      <c r="Q259" s="147"/>
+      <c r="R259" s="147"/>
+      <c r="X259" s="146">
         <v>0.10979999999999999</v>
       </c>
-      <c r="Y259" s="154"/>
-      <c r="Z259" s="157"/>
-      <c r="AA259" s="157"/>
     </row>
     <row r="260" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="154">
+      <c r="B260" s="95">
         <v>20</v>
       </c>
-      <c r="C260" s="156">
+      <c r="C260" s="120">
         <v>45629</v>
       </c>
-      <c r="D260" s="160" t="s">
+      <c r="D260" t="s">
         <v>161</v>
       </c>
-      <c r="E260" s="158">
+      <c r="E260" s="122">
         <v>0.5625</v>
       </c>
-      <c r="F260" s="159">
+      <c r="F260" s="1">
         <v>22</v>
       </c>
-      <c r="G260" s="159">
+      <c r="G260" s="1">
         <v>30</v>
       </c>
-      <c r="H260" s="152">
+      <c r="H260" s="146">
         <v>10</v>
       </c>
-      <c r="I260" s="153" t="s">
+      <c r="I260" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J260" s="152">
+      <c r="J260" s="146">
         <v>9</v>
       </c>
-      <c r="K260" s="154"/>
-      <c r="L260" s="153" t="s">
+      <c r="L260" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="M260" s="153"/>
-      <c r="N260" s="153"/>
-      <c r="O260" s="153"/>
-      <c r="P260" s="153"/>
-      <c r="Q260" s="153"/>
-      <c r="R260" s="153"/>
-      <c r="S260" s="154"/>
-      <c r="T260" s="154"/>
-      <c r="U260" s="154"/>
-      <c r="V260" s="154"/>
-      <c r="W260" s="154"/>
-      <c r="X260" s="152">
+      <c r="M260" s="147"/>
+      <c r="N260" s="147"/>
+      <c r="O260" s="147"/>
+      <c r="P260" s="147"/>
+      <c r="Q260" s="147"/>
+      <c r="R260" s="147"/>
+      <c r="X260" s="146">
         <v>0.1119</v>
       </c>
-      <c r="Y260" s="154"/>
-      <c r="Z260" s="157"/>
-      <c r="AA260" s="157"/>
     </row>
     <row r="261" spans="1:27" s="91" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
@@ -23247,7 +23242,7 @@
       <c r="C261" s="127">
         <v>45630</v>
       </c>
-      <c r="D261" s="161" t="s">
+      <c r="D261" s="149" t="s">
         <v>161</v>
       </c>
       <c r="E261" s="128">
@@ -23312,1249 +23307,1154 @@
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="154">
+      <c r="B262" s="95">
         <v>21</v>
       </c>
-      <c r="C262" s="156">
+      <c r="C262" s="120">
         <v>45630</v>
       </c>
-      <c r="D262" s="162" t="s">
+      <c r="D262" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E262" s="158">
+      <c r="E262" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F262" s="159">
-        <v>23</v>
-      </c>
-      <c r="G262" s="159">
+      <c r="F262" s="1">
+        <v>23</v>
+      </c>
+      <c r="G262" s="1">
         <v>46</v>
       </c>
-      <c r="H262" s="152">
+      <c r="H262" s="146">
         <v>2</v>
       </c>
-      <c r="I262" s="153" t="s">
+      <c r="I262" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J262" s="152">
+      <c r="J262" s="146">
         <v>7</v>
       </c>
-      <c r="K262" s="158">
+      <c r="K262" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L262" s="153" t="s">
+      <c r="L262" s="147" t="s">
         <v>40</v>
       </c>
-      <c r="M262" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N262" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O262" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P262" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q262" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R262" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S262" s="154"/>
-      <c r="T262" s="154"/>
-      <c r="U262" s="154">
-        <v>0</v>
-      </c>
-      <c r="V262" s="152">
-        <v>0</v>
-      </c>
-      <c r="W262" s="152">
-        <v>0</v>
-      </c>
-      <c r="X262" s="152">
+      <c r="M262" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N262" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O262" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P262" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q262" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R262" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U262" s="95">
+        <v>0</v>
+      </c>
+      <c r="V262" s="146">
+        <v>0</v>
+      </c>
+      <c r="W262" s="146">
+        <v>0</v>
+      </c>
+      <c r="X262" s="146">
         <v>0.31340000000000001</v>
       </c>
-      <c r="Y262" s="154"/>
-      <c r="Z262" s="157"/>
-      <c r="AA262" s="157"/>
     </row>
     <row r="263" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" s="154">
+      <c r="B263" s="95">
         <v>21</v>
       </c>
-      <c r="C263" s="156">
+      <c r="C263" s="120">
         <v>45630</v>
       </c>
-      <c r="D263" s="162" t="s">
+      <c r="D263" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E263" s="158">
+      <c r="E263" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F263" s="159">
-        <v>23</v>
-      </c>
-      <c r="G263" s="159">
+      <c r="F263" s="1">
+        <v>23</v>
+      </c>
+      <c r="G263" s="1">
         <v>46</v>
       </c>
-      <c r="H263" s="152">
+      <c r="H263" s="146">
         <v>3</v>
       </c>
-      <c r="I263" s="153" t="s">
+      <c r="I263" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J263" s="152">
+      <c r="J263" s="146">
         <v>8</v>
       </c>
-      <c r="K263" s="158">
+      <c r="K263" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L263" s="153" t="s">
+      <c r="L263" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M263" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N263" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O263" s="153" t="s">
+      <c r="M263" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N263" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O263" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="P263" s="153" t="s">
+      <c r="P263" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q263" s="153" t="s">
+      <c r="Q263" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R263" s="153" t="s">
+      <c r="R263" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S263" s="154"/>
-      <c r="T263" s="154"/>
-      <c r="U263" s="154">
-        <v>0</v>
-      </c>
-      <c r="V263" s="152">
-        <v>0</v>
-      </c>
-      <c r="W263" s="152">
-        <v>0</v>
-      </c>
-      <c r="X263" s="152">
+      <c r="U263" s="95">
+        <v>0</v>
+      </c>
+      <c r="V263" s="146">
+        <v>0</v>
+      </c>
+      <c r="W263" s="146">
+        <v>0</v>
+      </c>
+      <c r="X263" s="146">
         <v>0.14810000000000001</v>
       </c>
-      <c r="Y263" s="154"/>
-      <c r="Z263" s="157"/>
-      <c r="AA263" s="157"/>
     </row>
     <row r="264" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="154">
+      <c r="B264" s="95">
         <v>21</v>
       </c>
-      <c r="C264" s="156">
+      <c r="C264" s="120">
         <v>45630</v>
       </c>
-      <c r="D264" s="162" t="s">
+      <c r="D264" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E264" s="158">
+      <c r="E264" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F264" s="159">
-        <v>23</v>
-      </c>
-      <c r="G264" s="159">
+      <c r="F264" s="1">
+        <v>23</v>
+      </c>
+      <c r="G264" s="1">
         <v>46</v>
       </c>
-      <c r="H264" s="152">
+      <c r="H264" s="146">
         <v>4</v>
       </c>
-      <c r="I264" s="153" t="s">
+      <c r="I264" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J264" s="152">
+      <c r="J264" s="146">
         <v>7</v>
       </c>
-      <c r="K264" s="158">
+      <c r="K264" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L264" s="153" t="s">
+      <c r="L264" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M264" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N264" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O264" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P264" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q264" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R264" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S264" s="154"/>
-      <c r="T264" s="154"/>
-      <c r="U264" s="154">
-        <v>0</v>
-      </c>
-      <c r="V264" s="153">
-        <v>1</v>
-      </c>
-      <c r="W264" s="152">
-        <v>0</v>
-      </c>
-      <c r="X264" s="152">
+      <c r="M264" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N264" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O264" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P264" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q264" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R264" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="U264" s="95">
+        <v>0</v>
+      </c>
+      <c r="V264" s="147">
+        <v>1</v>
+      </c>
+      <c r="W264" s="146">
+        <v>0</v>
+      </c>
+      <c r="X264" s="146">
         <v>0.27739999999999998</v>
       </c>
-      <c r="Y264" s="154"/>
-      <c r="Z264" s="157"/>
-      <c r="AA264" s="157"/>
     </row>
     <row r="265" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" s="154">
+      <c r="B265" s="95">
         <v>21</v>
       </c>
-      <c r="C265" s="156">
+      <c r="C265" s="120">
         <v>45630</v>
       </c>
-      <c r="D265" s="162" t="s">
+      <c r="D265" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E265" s="158">
+      <c r="E265" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F265" s="159">
-        <v>23</v>
-      </c>
-      <c r="G265" s="159">
+      <c r="F265" s="1">
+        <v>23</v>
+      </c>
+      <c r="G265" s="1">
         <v>46</v>
       </c>
-      <c r="H265" s="152">
+      <c r="H265" s="146">
         <v>5</v>
       </c>
-      <c r="I265" s="153" t="s">
+      <c r="I265" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J265" s="152">
+      <c r="J265" s="146">
         <v>9</v>
       </c>
-      <c r="K265" s="158">
+      <c r="K265" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L265" s="153" t="s">
+      <c r="L265" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M265" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N265" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O265" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P265" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q265" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R265" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S265" s="154"/>
-      <c r="T265" s="154"/>
-      <c r="U265" s="154">
-        <v>0</v>
-      </c>
-      <c r="V265" s="153">
-        <v>1</v>
-      </c>
-      <c r="W265" s="152">
-        <v>0</v>
-      </c>
-      <c r="X265" s="152">
+      <c r="M265" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N265" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O265" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P265" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q265" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R265" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="U265" s="95">
+        <v>0</v>
+      </c>
+      <c r="V265" s="147">
+        <v>1</v>
+      </c>
+      <c r="W265" s="146">
+        <v>0</v>
+      </c>
+      <c r="X265" s="146">
         <v>0.14910000000000001</v>
       </c>
-      <c r="Y265" s="154"/>
-      <c r="Z265" s="157"/>
-      <c r="AA265" s="157"/>
     </row>
     <row r="266" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="154">
+      <c r="B266" s="95">
         <v>21</v>
       </c>
-      <c r="C266" s="156">
+      <c r="C266" s="120">
         <v>45630</v>
       </c>
-      <c r="D266" s="162" t="s">
+      <c r="D266" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E266" s="158">
+      <c r="E266" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F266" s="159">
-        <v>23</v>
-      </c>
-      <c r="G266" s="159">
+      <c r="F266" s="1">
+        <v>23</v>
+      </c>
+      <c r="G266" s="1">
         <v>46</v>
       </c>
-      <c r="H266" s="152">
+      <c r="H266" s="146">
         <v>6</v>
       </c>
-      <c r="I266" s="153" t="s">
+      <c r="I266" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J266" s="152">
+      <c r="J266" s="146">
         <v>8</v>
       </c>
-      <c r="K266" s="158">
+      <c r="K266" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L266" s="153" t="s">
+      <c r="L266" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M266" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N266" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O266" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P266" s="153" t="s">
+      <c r="M266" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N266" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O266" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P266" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q266" s="153" t="s">
+      <c r="Q266" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R266" s="153" t="s">
+      <c r="R266" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S266" s="154"/>
-      <c r="T266" s="154"/>
-      <c r="U266" s="154">
-        <v>0</v>
-      </c>
-      <c r="V266" s="153">
-        <v>1</v>
-      </c>
-      <c r="W266" s="153">
-        <v>1</v>
-      </c>
-      <c r="X266" s="152">
+      <c r="U266" s="95">
+        <v>0</v>
+      </c>
+      <c r="V266" s="147">
+        <v>1</v>
+      </c>
+      <c r="W266" s="147">
+        <v>1</v>
+      </c>
+      <c r="X266" s="146">
         <v>0.22889999999999999</v>
       </c>
-      <c r="Y266" s="154"/>
-      <c r="Z266" s="157"/>
-      <c r="AA266" s="157"/>
     </row>
     <row r="267" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" s="154">
+      <c r="B267" s="95">
         <v>21</v>
       </c>
-      <c r="C267" s="156">
+      <c r="C267" s="120">
         <v>45630</v>
       </c>
-      <c r="D267" s="162" t="s">
+      <c r="D267" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E267" s="158">
+      <c r="E267" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F267" s="159">
-        <v>23</v>
-      </c>
-      <c r="G267" s="159">
+      <c r="F267" s="1">
+        <v>23</v>
+      </c>
+      <c r="G267" s="1">
         <v>46</v>
       </c>
-      <c r="H267" s="152">
+      <c r="H267" s="146">
         <v>7</v>
       </c>
-      <c r="I267" s="153" t="s">
+      <c r="I267" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J267" s="152">
+      <c r="J267" s="146">
         <v>7</v>
       </c>
-      <c r="K267" s="158">
+      <c r="K267" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L267" s="153" t="s">
+      <c r="L267" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="M267" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N267" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O267" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P267" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q267" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R267" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S267" s="154"/>
-      <c r="T267" s="154"/>
-      <c r="U267" s="154">
-        <v>0</v>
-      </c>
-      <c r="V267" s="152">
-        <v>0</v>
-      </c>
-      <c r="W267" s="153">
-        <v>0</v>
-      </c>
-      <c r="X267" s="153"/>
-      <c r="Y267" s="154"/>
-      <c r="Z267" s="157"/>
-      <c r="AA267" s="157"/>
+      <c r="M267" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N267" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O267" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P267" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q267" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R267" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="U267" s="95">
+        <v>0</v>
+      </c>
+      <c r="V267" s="146">
+        <v>0</v>
+      </c>
+      <c r="W267" s="147">
+        <v>0</v>
+      </c>
+      <c r="X267" s="147"/>
     </row>
     <row r="268" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="154">
+      <c r="B268" s="95">
         <v>21</v>
       </c>
-      <c r="C268" s="156">
+      <c r="C268" s="120">
         <v>45630</v>
       </c>
-      <c r="D268" s="162" t="s">
+      <c r="D268" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E268" s="158">
+      <c r="E268" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F268" s="159">
-        <v>23</v>
-      </c>
-      <c r="G268" s="159">
+      <c r="F268" s="1">
+        <v>23</v>
+      </c>
+      <c r="G268" s="1">
         <v>46</v>
       </c>
-      <c r="H268" s="152">
+      <c r="H268" s="146">
         <v>8</v>
       </c>
-      <c r="I268" s="153" t="s">
+      <c r="I268" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J268" s="152">
+      <c r="J268" s="146">
         <v>8</v>
       </c>
-      <c r="K268" s="158">
+      <c r="K268" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L268" s="153" t="s">
+      <c r="L268" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M268" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N268" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O268" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P268" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q268" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R268" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S268" s="154"/>
-      <c r="T268" s="154"/>
-      <c r="U268" s="154">
-        <v>0</v>
-      </c>
-      <c r="V268" s="152">
-        <v>1</v>
-      </c>
-      <c r="W268" s="152">
-        <v>0</v>
-      </c>
-      <c r="X268" s="152">
+      <c r="M268" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N268" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O268" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P268" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q268" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R268" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U268" s="95">
+        <v>0</v>
+      </c>
+      <c r="V268" s="146">
+        <v>1</v>
+      </c>
+      <c r="W268" s="146">
+        <v>0</v>
+      </c>
+      <c r="X268" s="146">
         <v>0.19839999999999999</v>
       </c>
-      <c r="Y268" s="154"/>
-      <c r="Z268" s="157"/>
-      <c r="AA268" s="157"/>
     </row>
     <row r="269" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" s="154">
+      <c r="B269" s="95">
         <v>21</v>
       </c>
-      <c r="C269" s="156">
+      <c r="C269" s="120">
         <v>45630</v>
       </c>
-      <c r="D269" s="162" t="s">
+      <c r="D269" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E269" s="158">
+      <c r="E269" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F269" s="159">
-        <v>23</v>
-      </c>
-      <c r="G269" s="159">
+      <c r="F269" s="1">
+        <v>23</v>
+      </c>
+      <c r="G269" s="1">
         <v>46</v>
       </c>
-      <c r="H269" s="152">
+      <c r="H269" s="146">
         <v>9</v>
       </c>
-      <c r="I269" s="153" t="s">
+      <c r="I269" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J269" s="152">
+      <c r="J269" s="146">
         <v>7</v>
       </c>
-      <c r="K269" s="158">
+      <c r="K269" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L269" s="153" t="s">
+      <c r="L269" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M269" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N269" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O269" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P269" s="153" t="s">
+      <c r="M269" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N269" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O269" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P269" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q269" s="153" t="s">
+      <c r="Q269" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R269" s="153" t="s">
+      <c r="R269" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S269" s="154"/>
-      <c r="T269" s="154"/>
-      <c r="U269" s="154">
-        <v>0</v>
-      </c>
-      <c r="V269" s="152">
-        <v>0</v>
-      </c>
-      <c r="W269" s="152">
-        <v>0</v>
-      </c>
-      <c r="X269" s="152">
+      <c r="U269" s="95">
+        <v>0</v>
+      </c>
+      <c r="V269" s="146">
+        <v>0</v>
+      </c>
+      <c r="W269" s="146">
+        <v>0</v>
+      </c>
+      <c r="X269" s="146">
         <v>0.19189999999999999</v>
       </c>
-      <c r="Y269" s="154"/>
-      <c r="Z269" s="157"/>
-      <c r="AA269" s="157"/>
     </row>
     <row r="270" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="154">
+      <c r="B270" s="95">
         <v>21</v>
       </c>
-      <c r="C270" s="156">
+      <c r="C270" s="120">
         <v>45630</v>
       </c>
-      <c r="D270" s="162" t="s">
+      <c r="D270" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E270" s="158">
+      <c r="E270" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F270" s="159">
-        <v>23</v>
-      </c>
-      <c r="G270" s="159">
+      <c r="F270" s="1">
+        <v>23</v>
+      </c>
+      <c r="G270" s="1">
         <v>46</v>
       </c>
-      <c r="H270" s="152">
+      <c r="H270" s="146">
         <v>10</v>
       </c>
-      <c r="I270" s="153" t="s">
+      <c r="I270" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J270" s="152">
+      <c r="J270" s="146">
         <v>9</v>
       </c>
-      <c r="K270" s="158">
+      <c r="K270" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L270" s="153" t="s">
+      <c r="L270" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M270" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N270" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O270" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P270" s="153" t="s">
+      <c r="M270" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N270" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O270" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P270" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q270" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R270" s="153" t="s">
+      <c r="Q270" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R270" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="S270" s="154"/>
-      <c r="T270" s="154"/>
-      <c r="U270" s="154">
-        <v>0</v>
-      </c>
-      <c r="V270" s="152">
-        <v>0</v>
-      </c>
-      <c r="W270" s="152">
-        <v>0</v>
-      </c>
-      <c r="X270" s="152">
+      <c r="U270" s="95">
+        <v>0</v>
+      </c>
+      <c r="V270" s="146">
+        <v>0</v>
+      </c>
+      <c r="W270" s="146">
+        <v>0</v>
+      </c>
+      <c r="X270" s="146">
         <v>0.18529999999999999</v>
       </c>
-      <c r="Y270" s="154"/>
-      <c r="Z270" s="157"/>
-      <c r="AA270" s="157"/>
     </row>
     <row r="271" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="154">
+      <c r="B271" s="95">
         <v>21</v>
       </c>
-      <c r="C271" s="156">
+      <c r="C271" s="120">
         <v>45630</v>
       </c>
-      <c r="D271" s="162" t="s">
+      <c r="D271" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E271" s="158">
+      <c r="E271" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F271" s="159">
-        <v>23</v>
-      </c>
-      <c r="G271" s="159">
+      <c r="F271" s="1">
+        <v>23</v>
+      </c>
+      <c r="G271" s="1">
         <v>46</v>
       </c>
-      <c r="H271" s="152">
+      <c r="H271" s="146">
         <v>11</v>
       </c>
-      <c r="I271" s="153" t="s">
+      <c r="I271" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J271" s="152">
+      <c r="J271" s="146">
         <v>8</v>
       </c>
-      <c r="K271" s="158">
+      <c r="K271" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L271" s="153" t="s">
+      <c r="L271" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M271" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N271" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O271" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P271" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q271" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R271" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S271" s="154"/>
-      <c r="T271" s="154"/>
-      <c r="U271" s="154">
-        <v>0</v>
-      </c>
-      <c r="V271" s="152">
-        <v>1</v>
-      </c>
-      <c r="W271" s="152">
-        <v>0</v>
-      </c>
-      <c r="X271" s="152">
+      <c r="M271" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N271" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O271" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P271" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q271" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R271" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U271" s="95">
+        <v>0</v>
+      </c>
+      <c r="V271" s="146">
+        <v>1</v>
+      </c>
+      <c r="W271" s="146">
+        <v>0</v>
+      </c>
+      <c r="X271" s="146">
         <v>0.16589999999999999</v>
       </c>
-      <c r="Y271" s="154"/>
-      <c r="Z271" s="157"/>
-      <c r="AA271" s="157"/>
     </row>
     <row r="272" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="154">
+      <c r="B272" s="95">
         <v>21</v>
       </c>
-      <c r="C272" s="156">
+      <c r="C272" s="120">
         <v>45630</v>
       </c>
-      <c r="D272" s="162" t="s">
+      <c r="D272" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E272" s="158">
+      <c r="E272" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F272" s="159">
-        <v>23</v>
-      </c>
-      <c r="G272" s="159">
+      <c r="F272" s="1">
+        <v>23</v>
+      </c>
+      <c r="G272" s="1">
         <v>46</v>
       </c>
-      <c r="H272" s="152">
+      <c r="H272" s="146">
         <v>12</v>
       </c>
-      <c r="I272" s="153" t="s">
+      <c r="I272" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J272" s="152">
+      <c r="J272" s="146">
         <v>7</v>
       </c>
-      <c r="K272" s="158">
+      <c r="K272" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L272" s="153" t="s">
+      <c r="L272" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="M272" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N272" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O272" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="P272" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q272" s="153" t="s">
+      <c r="M272" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N272" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O272" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="P272" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q272" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R272" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S272" s="154"/>
-      <c r="T272" s="154"/>
-      <c r="U272" s="154">
-        <v>0</v>
-      </c>
-      <c r="V272" s="152">
-        <v>0</v>
-      </c>
-      <c r="W272" s="152">
-        <v>0</v>
-      </c>
-      <c r="X272" s="152">
+      <c r="R272" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U272" s="95">
+        <v>0</v>
+      </c>
+      <c r="V272" s="146">
+        <v>0</v>
+      </c>
+      <c r="W272" s="146">
+        <v>0</v>
+      </c>
+      <c r="X272" s="146">
         <v>0.245</v>
       </c>
-      <c r="Y272" s="154"/>
-      <c r="Z272" s="157"/>
-      <c r="AA272" s="157"/>
-    </row>
-    <row r="273" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="154">
+      <c r="B273" s="95">
         <v>21</v>
       </c>
-      <c r="C273" s="156">
+      <c r="C273" s="120">
         <v>45630</v>
       </c>
-      <c r="D273" s="162" t="s">
+      <c r="D273" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E273" s="158">
+      <c r="E273" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F273" s="159">
-        <v>23</v>
-      </c>
-      <c r="G273" s="159">
+      <c r="F273" s="1">
+        <v>23</v>
+      </c>
+      <c r="G273" s="1">
         <v>46</v>
       </c>
-      <c r="H273" s="152">
+      <c r="H273" s="146">
         <v>13</v>
       </c>
-      <c r="I273" s="153" t="s">
+      <c r="I273" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J273" s="152">
+      <c r="J273" s="146">
         <v>8</v>
       </c>
-      <c r="K273" s="158">
+      <c r="K273" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L273" s="153" t="s">
+      <c r="L273" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M273" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N273" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O273" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P273" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q273" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R273" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S273" s="154"/>
-      <c r="T273" s="154"/>
-      <c r="U273" s="154">
-        <v>0</v>
-      </c>
-      <c r="V273" s="152">
-        <v>1</v>
-      </c>
-      <c r="W273" s="152">
-        <v>0</v>
-      </c>
-      <c r="X273" s="152">
+      <c r="M273" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N273" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O273" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P273" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q273" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R273" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U273" s="95">
+        <v>0</v>
+      </c>
+      <c r="V273" s="146">
+        <v>1</v>
+      </c>
+      <c r="W273" s="146">
+        <v>0</v>
+      </c>
+      <c r="X273" s="146">
         <v>0.17660000000000001</v>
       </c>
-      <c r="Y273" s="154"/>
-      <c r="Z273" s="157"/>
-      <c r="AA273" s="157"/>
-    </row>
-    <row r="274" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="154">
+      <c r="B274" s="95">
         <v>21</v>
       </c>
-      <c r="C274" s="156">
+      <c r="C274" s="120">
         <v>45630</v>
       </c>
-      <c r="D274" s="162" t="s">
+      <c r="D274" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E274" s="158">
+      <c r="E274" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F274" s="159">
-        <v>23</v>
-      </c>
-      <c r="G274" s="159">
+      <c r="F274" s="1">
+        <v>23</v>
+      </c>
+      <c r="G274" s="1">
         <v>46</v>
       </c>
-      <c r="H274" s="152">
+      <c r="H274" s="146">
         <v>14</v>
       </c>
-      <c r="I274" s="153" t="s">
+      <c r="I274" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J274" s="152">
+      <c r="J274" s="146">
         <v>7</v>
       </c>
-      <c r="K274" s="158">
+      <c r="K274" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L274" s="153" t="s">
+      <c r="L274" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M274" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N274" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O274" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P274" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q274" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R274" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S274" s="154"/>
-      <c r="T274" s="154"/>
-      <c r="U274" s="154">
-        <v>0</v>
-      </c>
-      <c r="V274" s="152">
-        <v>0</v>
-      </c>
-      <c r="W274" s="152">
-        <v>0</v>
-      </c>
-      <c r="X274" s="152">
+      <c r="M274" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N274" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O274" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P274" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q274" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R274" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U274" s="95">
+        <v>0</v>
+      </c>
+      <c r="V274" s="146">
+        <v>0</v>
+      </c>
+      <c r="W274" s="146">
+        <v>0</v>
+      </c>
+      <c r="X274" s="146">
         <v>0.26200000000000001</v>
       </c>
-      <c r="Y274" s="154"/>
-      <c r="Z274" s="157"/>
-      <c r="AA274" s="157"/>
-    </row>
-    <row r="275" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="154">
+      <c r="B275" s="95">
         <v>21</v>
       </c>
-      <c r="C275" s="156">
+      <c r="C275" s="120">
         <v>45630</v>
       </c>
-      <c r="D275" s="162" t="s">
+      <c r="D275" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E275" s="158">
+      <c r="E275" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F275" s="159">
-        <v>23</v>
-      </c>
-      <c r="G275" s="159">
+      <c r="F275" s="1">
+        <v>23</v>
+      </c>
+      <c r="G275" s="1">
         <v>46</v>
       </c>
-      <c r="H275" s="152">
+      <c r="H275" s="146">
         <v>15</v>
       </c>
-      <c r="I275" s="153" t="s">
+      <c r="I275" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J275" s="152">
+      <c r="J275" s="146">
         <v>9</v>
       </c>
-      <c r="K275" s="158">
+      <c r="K275" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L275" s="153" t="s">
+      <c r="L275" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M275" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N275" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O275" s="153" t="s">
+      <c r="M275" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N275" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O275" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="P275" s="153" t="s">
+      <c r="P275" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="Q275" s="153" t="s">
+      <c r="Q275" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="R275" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S275" s="154"/>
-      <c r="T275" s="154"/>
-      <c r="U275" s="154">
-        <v>0</v>
-      </c>
-      <c r="V275" s="152">
-        <v>1</v>
-      </c>
-      <c r="W275" s="152">
-        <v>0</v>
-      </c>
-      <c r="X275" s="152">
+      <c r="R275" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="U275" s="95">
+        <v>0</v>
+      </c>
+      <c r="V275" s="146">
+        <v>1</v>
+      </c>
+      <c r="W275" s="146">
+        <v>0</v>
+      </c>
+      <c r="X275" s="146">
         <v>0.25629999999999997</v>
       </c>
-      <c r="Y275" s="154"/>
-      <c r="Z275" s="157"/>
-      <c r="AA275" s="157"/>
-    </row>
-    <row r="276" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="154">
+      <c r="B276" s="95">
         <v>21</v>
       </c>
-      <c r="C276" s="156">
+      <c r="C276" s="120">
         <v>45630</v>
       </c>
-      <c r="D276" s="162" t="s">
+      <c r="D276" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E276" s="158">
+      <c r="E276" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F276" s="159">
-        <v>23</v>
-      </c>
-      <c r="G276" s="159">
+      <c r="F276" s="1">
+        <v>23</v>
+      </c>
+      <c r="G276" s="1">
         <v>46</v>
       </c>
-      <c r="H276" s="152">
+      <c r="H276" s="146">
         <v>16</v>
       </c>
-      <c r="I276" s="153" t="s">
+      <c r="I276" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J276" s="152">
+      <c r="J276" s="146">
         <v>8</v>
       </c>
-      <c r="K276" s="158">
+      <c r="K276" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L276" s="153" t="s">
+      <c r="L276" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M276" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="N276" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="O276" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="P276" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q276" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="R276" s="153" t="s">
-        <v>1</v>
-      </c>
-      <c r="S276" s="154"/>
-      <c r="T276" s="154"/>
-      <c r="U276" s="154">
-        <v>0</v>
-      </c>
-      <c r="V276" s="152">
-        <v>0</v>
-      </c>
-      <c r="W276" s="152">
-        <v>0</v>
-      </c>
-      <c r="X276" s="152">
+      <c r="M276" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="N276" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="O276" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="P276" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q276" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="R276" s="147" t="s">
+        <v>1</v>
+      </c>
+      <c r="U276" s="95">
+        <v>0</v>
+      </c>
+      <c r="V276" s="146">
+        <v>0</v>
+      </c>
+      <c r="W276" s="146">
+        <v>0</v>
+      </c>
+      <c r="X276" s="146">
         <v>0.17299999999999999</v>
       </c>
-      <c r="Y276" s="154"/>
-      <c r="Z276" s="157"/>
-      <c r="AA276" s="157"/>
-    </row>
-    <row r="277" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="154">
+      <c r="B277" s="95">
         <v>21</v>
       </c>
-      <c r="C277" s="156">
+      <c r="C277" s="120">
         <v>45630</v>
       </c>
-      <c r="D277" s="162" t="s">
+      <c r="D277" s="150" t="s">
         <v>161</v>
       </c>
-      <c r="E277" s="158">
+      <c r="E277" s="122">
         <v>0.46944444444444444</v>
       </c>
-      <c r="F277" s="159">
-        <v>23</v>
-      </c>
-      <c r="G277" s="159">
+      <c r="F277" s="1">
+        <v>23</v>
+      </c>
+      <c r="G277" s="1">
         <v>46</v>
       </c>
-      <c r="H277" s="152">
+      <c r="H277" s="146">
         <v>17</v>
       </c>
-      <c r="I277" s="153" t="s">
+      <c r="I277" s="147" t="s">
         <v>21</v>
       </c>
-      <c r="J277" s="152">
+      <c r="J277" s="146">
         <v>7</v>
       </c>
-      <c r="K277" s="158">
+      <c r="K277" s="122">
         <v>6.25E-2</v>
       </c>
-      <c r="L277" s="153" t="s">
+      <c r="L277" s="147" t="s">
         <v>32</v>
       </c>
-      <c r="M277" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="N277" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="O277" s="153" t="s">
+      <c r="M277" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="N277" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="O277" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="P277" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q277" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="R277" s="153" t="s">
-        <v>23</v>
-      </c>
-      <c r="S277" s="154"/>
-      <c r="T277" s="154"/>
-      <c r="U277" s="154">
-        <v>0</v>
-      </c>
-      <c r="V277" s="152">
-        <v>0</v>
-      </c>
-      <c r="W277" s="152">
-        <v>0</v>
-      </c>
-      <c r="X277" s="152">
+      <c r="P277" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q277" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="R277" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="U277" s="95">
+        <v>0</v>
+      </c>
+      <c r="V277" s="146">
+        <v>0</v>
+      </c>
+      <c r="W277" s="146">
+        <v>0</v>
+      </c>
+      <c r="X277" s="146">
         <v>0.16059999999999999</v>
       </c>
-      <c r="Y277" s="154"/>
-      <c r="Z277" s="157"/>
-      <c r="AA277" s="157"/>
-    </row>
-    <row r="278" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B278" s="154"/>
-      <c r="C278" s="156"/>
-      <c r="D278" s="162"/>
-      <c r="E278" s="158"/>
-      <c r="F278" s="159"/>
-      <c r="G278" s="159"/>
-      <c r="H278" s="154"/>
-      <c r="I278" s="153"/>
-      <c r="J278" s="154"/>
-    </row>
-    <row r="279" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B279" s="154"/>
-      <c r="C279" s="156"/>
-      <c r="D279" s="162"/>
-      <c r="E279" s="158"/>
-      <c r="F279" s="159"/>
-      <c r="G279" s="159"/>
-      <c r="H279" s="154"/>
-      <c r="I279" s="153"/>
-      <c r="J279" s="154"/>
-    </row>
-    <row r="280" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B280" s="154"/>
-      <c r="C280" s="156"/>
-      <c r="D280" s="162"/>
-      <c r="E280" s="158"/>
-      <c r="F280" s="159"/>
-      <c r="G280" s="159"/>
-      <c r="H280" s="154"/>
-      <c r="I280" s="153"/>
-      <c r="J280" s="154"/>
-    </row>
-    <row r="281" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B281" s="154"/>
-      <c r="C281" s="156"/>
-      <c r="D281" s="162"/>
-      <c r="E281" s="158"/>
-      <c r="F281" s="159"/>
-      <c r="G281" s="159"/>
-      <c r="H281" s="154"/>
-      <c r="I281" s="153"/>
-      <c r="J281" s="154"/>
-    </row>
-    <row r="282" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B282" s="154"/>
-      <c r="C282" s="156"/>
-      <c r="D282" s="162"/>
-      <c r="E282" s="158"/>
-      <c r="F282" s="159"/>
-      <c r="G282" s="159"/>
-      <c r="H282" s="154"/>
-      <c r="I282" s="153"/>
-      <c r="J282" s="154"/>
-    </row>
-    <row r="283" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C278" s="120"/>
+      <c r="D278" s="150"/>
+      <c r="E278" s="122"/>
+      <c r="F278" s="1"/>
+      <c r="G278" s="1"/>
+      <c r="I278" s="147"/>
+    </row>
+    <row r="279" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C279" s="120"/>
+      <c r="D279" s="150"/>
+      <c r="E279" s="122"/>
+      <c r="F279" s="1"/>
+      <c r="G279" s="1"/>
+      <c r="I279" s="147"/>
+    </row>
+    <row r="280" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C280" s="120"/>
+      <c r="D280" s="150"/>
+      <c r="E280" s="122"/>
+      <c r="F280" s="1"/>
+      <c r="G280" s="1"/>
+      <c r="I280" s="147"/>
+    </row>
+    <row r="281" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C281" s="120"/>
+      <c r="D281" s="150"/>
+      <c r="E281" s="122"/>
+      <c r="F281" s="1"/>
+      <c r="G281" s="1"/>
+      <c r="I281" s="147"/>
+    </row>
+    <row r="282" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C282" s="120"/>
+      <c r="D282" s="150"/>
+      <c r="E282" s="122"/>
+      <c r="F282" s="1"/>
+      <c r="G282" s="1"/>
+      <c r="I282" s="147"/>
+    </row>
+    <row r="283" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
       <c r="G283" s="1"/>
     </row>
-    <row r="284" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
       <c r="G284" s="1"/>
     </row>
-    <row r="285" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1"/>
     </row>
-    <row r="286" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1"/>
     </row>
-    <row r="287" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
       <c r="G287" s="1"/>
     </row>
-    <row r="288" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
       <c r="G288" s="1"/>
@@ -28761,26 +28661,26 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="149" t="s">
+      <c r="L1" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="151" t="s">
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="150"/>
+      <c r="S1" s="152"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="150"/>
+      <c r="X1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="152"/>
       <c r="AC1" s="68" t="s">
         <v>88</v>
       </c>
@@ -42553,26 +42453,26 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="149" t="s">
+      <c r="L1" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="150"/>
-      <c r="N1" s="150"/>
-      <c r="O1" s="150"/>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="151" t="s">
+      <c r="M1" s="152"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="152"/>
+      <c r="P1" s="152"/>
+      <c r="Q1" s="152"/>
+      <c r="R1" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="150"/>
+      <c r="S1" s="152"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="1"/>
-      <c r="X1" s="151" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" s="150"/>
+      <c r="X1" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="152"/>
       <c r="AC1" s="68" t="s">
         <v>88</v>
       </c>
